--- a/semNavigateContent_Big6/data/2023103x - Draft DigiTinDir - Drivkraftpersonlighetstest.xlsx
+++ b/semNavigateContent_Big6/data/2023103x - Draft DigiTinDir - Drivkraftpersonlighetstest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\semNavigateContent\semNavigateContent_Big6\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDBFB8-CA02-4EFC-BA8E-6BD394E2825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E2CB7-AE5F-45F5-97E8-8F9B0189E205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="1401">
   <si>
     <t>DKPT</t>
   </si>
@@ -3776,9 +3776,6 @@
     <t>Biases</t>
   </si>
   <si>
-    <t>Cognitive Biases:</t>
-  </si>
-  <si>
     <t>Confirmation bias</t>
   </si>
   <si>
@@ -3869,9 +3866,6 @@
     <t xml:space="preserve"> Better foresight, embracing uncertainties, and promoting open-mindedness. </t>
   </si>
   <si>
-    <t>Social and Cultural Biases:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> User bias </t>
   </si>
   <si>
@@ -3962,9 +3956,6 @@
     <t xml:space="preserve"> Bold design choices, embracing uncertainty, and seizing potential breakthroughs. </t>
   </si>
   <si>
-    <t>Information and Environmental Biases:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Limited data access </t>
   </si>
   <si>
@@ -4055,9 +4046,6 @@
     <t xml:space="preserve"> Embracing design challenges, out-of-the-box thinking, and unique problem-solving. </t>
   </si>
   <si>
-    <t>Emotional and Psychological Biases:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Self-serving bias </t>
   </si>
   <si>
@@ -4148,9 +4136,6 @@
     <t xml:space="preserve"> Objective user evaluation, product improvement, and potential competitive advantage. </t>
   </si>
   <si>
-    <t>Decision-making Biases:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Status quo bias </t>
   </si>
   <si>
@@ -4241,9 +4226,6 @@
     <t xml:space="preserve"> Enhanced creativity, exploration of possibilities, and openness to uncertainty. </t>
   </si>
   <si>
-    <t>Technology and Interface Biases:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Automation bias </t>
   </si>
   <si>
@@ -4332,6 +4314,42 @@
   </si>
   <si>
     <t>Hvorfor dette ikke skjer og hvorfor det er skadelig: Overlooking user needs hinders UX, increases digital clutter, wastes resources, and negatively impacts user satisfaction and the environment.</t>
+  </si>
+  <si>
+    <t>Technology and interface biases arise from our interactions with digital solutions. They include overdependence on technology, interface design's impact on user behavior, and the influence of algorithms on user experiences. Addressing these biases involves striking a balance between technology use, designing intuitive interfaces, and reducing algorithmic discrimination.</t>
+  </si>
+  <si>
+    <t>Decision-making biases influence the choices we make in the design process. These biases can lead to suboptimal decisions, reluctance to embrace change, or irrational attachment to certain design features. Being aware of decision-making biases is crucial for fostering innovation and making user-centric choices.</t>
+  </si>
+  <si>
+    <t>Emotional and psychological biases stem from our emotions, attitudes, and self-perceptions. They can influence how we perceive and interact with design elements. Understanding these biases is essential for creating emotionally engaging and empathetic designs that resonate with users on a deeper level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information and environmental biases result from limitations in data collection, media influence, and design constraints. These biases can impact the quality of available information and the scope of design solutions. Overcoming these biases involves seeking diverse data sources, minimizing media manipulation, and creatively navigating design constraints.</t>
+  </si>
+  <si>
+    <t>Social and cultural biases arise from our interactions with others and the societal norms we internalize. These biases can affect design decisions by influencing our preferences, beliefs, and understanding of users. Recognizing and addressing these biases is crucial to creating inclusive and user-centered designs that resonate with diverse audiences.</t>
+  </si>
+  <si>
+    <t>Cognitive Biases</t>
+  </si>
+  <si>
+    <t>Social and Cultural Biases</t>
+  </si>
+  <si>
+    <t>Information and Environmental Biases</t>
+  </si>
+  <si>
+    <t>Emotional and Psychological Biases</t>
+  </si>
+  <si>
+    <t>Decision-making Biases</t>
+  </si>
+  <si>
+    <t>Technology and Interface Biases</t>
+  </si>
+  <si>
+    <t>Cognitive biases are mental shortcuts or patterns that influence our judgment and decision-making. They can lead to errors and distortions in perception, memory, and reasoning. These biases often result from our brain's attempt to process information efficiently, but they can lead to suboptimal decisions and design choices.</t>
   </si>
 </sst>
 </file>
@@ -4342,7 +4360,7 @@
     <numFmt numFmtId="164" formatCode="0%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4446,6 +4464,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4867,7 +4891,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5035,6 +5059,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -8836,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -15651,9 +15676,11 @@
         <v>800000</v>
       </c>
       <c r="C312" s="63" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D312" s="63"/>
+        <v>1394</v>
+      </c>
+      <c r="D312" s="63" t="s">
+        <v>1400</v>
+      </c>
       <c r="E312" s="63"/>
       <c r="F312" s="63"/>
       <c r="G312" s="63"/>
@@ -15663,7 +15690,7 @@
       </c>
       <c r="J312" t="str">
         <f t="shared" ref="J312:J347" si="6">"big6.push(["&amp;A312&amp;","&amp;B312&amp;",'"&amp;C312&amp;"','"&amp;SUBSTITUTE(D312,"'","\'")&amp;"','"&amp;SUBSTITUTE(E312,"'","\'")&amp;"','"&amp;SUBSTITUTE(F312,"'","\'")&amp;"','"&amp;SUBSTITUTE(G312,"'","\'")&amp;"','"&amp;SUBSTITUTE(H312,"'","\'")&amp;"']);"</f>
-        <v>big6.push([810000,800000,'Cognitive Biases:','','','','','']);</v>
+        <v>big6.push([810000,800000,'Cognitive Biases','Cognitive biases are mental shortcuts or patterns that influence our judgment and decision-making. They can lead to errors and distortions in perception, memory, and reasoning. These biases often result from our brain\'s attempt to process information efficiently, but they can lead to suboptimal decisions and design choices.','','','','']);</v>
       </c>
       <c r="K312" s="63"/>
       <c r="L312" s="64"/>
@@ -15676,22 +15703,22 @@
         <v>810000</v>
       </c>
       <c r="C313" s="63" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D313" s="63" t="s">
         <v>1210</v>
       </c>
-      <c r="D313" s="63" t="s">
+      <c r="E313" s="63" t="s">
         <v>1211</v>
       </c>
-      <c r="E313" s="63" t="s">
+      <c r="F313" s="63" t="s">
         <v>1212</v>
       </c>
-      <c r="F313" s="63" t="s">
+      <c r="G313" s="63" t="s">
         <v>1213</v>
       </c>
-      <c r="G313" s="63" t="s">
+      <c r="H313" s="64" t="s">
         <v>1214</v>
-      </c>
-      <c r="H313" s="64" t="s">
-        <v>1215</v>
       </c>
       <c r="I313" s="57">
         <v>36526</v>
@@ -15709,22 +15736,22 @@
         <v>810000</v>
       </c>
       <c r="C314" s="63" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D314" s="63" t="s">
         <v>1216</v>
       </c>
-      <c r="D314" s="63" t="s">
+      <c r="E314" s="63" t="s">
         <v>1217</v>
       </c>
-      <c r="E314" s="63" t="s">
+      <c r="F314" s="63" t="s">
         <v>1218</v>
       </c>
-      <c r="F314" s="63" t="s">
+      <c r="G314" s="63" t="s">
         <v>1219</v>
       </c>
-      <c r="G314" s="63" t="s">
+      <c r="H314" s="64" t="s">
         <v>1220</v>
-      </c>
-      <c r="H314" s="64" t="s">
-        <v>1221</v>
       </c>
       <c r="I314" s="57">
         <v>36526</v>
@@ -15742,22 +15769,22 @@
         <v>810000</v>
       </c>
       <c r="C315" s="63" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D315" s="63" t="s">
         <v>1222</v>
       </c>
-      <c r="D315" s="63" t="s">
+      <c r="E315" s="63" t="s">
         <v>1223</v>
       </c>
-      <c r="E315" s="63" t="s">
+      <c r="F315" s="63" t="s">
         <v>1224</v>
       </c>
-      <c r="F315" s="63" t="s">
+      <c r="G315" s="63" t="s">
         <v>1225</v>
       </c>
-      <c r="G315" s="63" t="s">
+      <c r="H315" s="64" t="s">
         <v>1226</v>
-      </c>
-      <c r="H315" s="64" t="s">
-        <v>1227</v>
       </c>
       <c r="I315" s="57">
         <v>36526</v>
@@ -15775,22 +15802,22 @@
         <v>810000</v>
       </c>
       <c r="C316" s="63" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D316" s="63" t="s">
         <v>1228</v>
       </c>
-      <c r="D316" s="63" t="s">
+      <c r="E316" s="63" t="s">
         <v>1229</v>
       </c>
-      <c r="E316" s="63" t="s">
+      <c r="F316" s="63" t="s">
         <v>1230</v>
       </c>
-      <c r="F316" s="63" t="s">
+      <c r="G316" s="63" t="s">
         <v>1231</v>
       </c>
-      <c r="G316" s="63" t="s">
+      <c r="H316" s="64" t="s">
         <v>1232</v>
-      </c>
-      <c r="H316" s="64" t="s">
-        <v>1233</v>
       </c>
       <c r="I316" s="57">
         <v>36526</v>
@@ -15808,22 +15835,22 @@
         <v>810000</v>
       </c>
       <c r="C317" s="63" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D317" s="63" t="s">
         <v>1234</v>
       </c>
-      <c r="D317" s="63" t="s">
+      <c r="E317" s="63" t="s">
         <v>1235</v>
       </c>
-      <c r="E317" s="63" t="s">
+      <c r="F317" s="63" t="s">
         <v>1236</v>
       </c>
-      <c r="F317" s="63" t="s">
+      <c r="G317" s="63" t="s">
         <v>1237</v>
       </c>
-      <c r="G317" s="63" t="s">
+      <c r="H317" s="64" t="s">
         <v>1238</v>
-      </c>
-      <c r="H317" s="64" t="s">
-        <v>1239</v>
       </c>
       <c r="I317" s="57">
         <v>36526</v>
@@ -15841,9 +15868,11 @@
         <v>800000</v>
       </c>
       <c r="C318" s="63" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D318" s="63"/>
+        <v>1395</v>
+      </c>
+      <c r="D318" s="63" t="s">
+        <v>1393</v>
+      </c>
       <c r="E318" s="63"/>
       <c r="F318" s="63"/>
       <c r="G318" s="63"/>
@@ -15853,7 +15882,7 @@
       </c>
       <c r="J318" t="str">
         <f t="shared" si="6"/>
-        <v>big6.push([820000,800000,'Social and Cultural Biases:','','','','','']);</v>
+        <v>big6.push([820000,800000,'Social and Cultural Biases','Social and cultural biases arise from our interactions with others and the societal norms we internalize. These biases can affect design decisions by influencing our preferences, beliefs, and understanding of users. Recognizing and addressing these biases is crucial to creating inclusive and user-centered designs that resonate with diverse audiences.','','','','']);</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15864,22 +15893,22 @@
         <v>820000</v>
       </c>
       <c r="C319" s="63" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D319" s="63" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E319" s="63" t="s">
         <v>1241</v>
       </c>
-      <c r="D319" s="63" t="s">
+      <c r="F319" s="63" t="s">
         <v>1242</v>
       </c>
-      <c r="E319" s="63" t="s">
+      <c r="G319" s="63" t="s">
         <v>1243</v>
       </c>
-      <c r="F319" s="63" t="s">
+      <c r="H319" s="64" t="s">
         <v>1244</v>
-      </c>
-      <c r="G319" s="63" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H319" s="64" t="s">
-        <v>1246</v>
       </c>
       <c r="I319" s="57">
         <v>36526</v>
@@ -15897,22 +15926,22 @@
         <v>820000</v>
       </c>
       <c r="C320" s="63" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D320" s="63" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E320" s="63" t="s">
         <v>1247</v>
       </c>
-      <c r="D320" s="63" t="s">
+      <c r="F320" s="63" t="s">
         <v>1248</v>
       </c>
-      <c r="E320" s="63" t="s">
+      <c r="G320" s="63" t="s">
         <v>1249</v>
       </c>
-      <c r="F320" s="63" t="s">
+      <c r="H320" s="64" t="s">
         <v>1250</v>
-      </c>
-      <c r="G320" s="63" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H320" s="64" t="s">
-        <v>1252</v>
       </c>
       <c r="I320" s="57">
         <v>36526</v>
@@ -15930,22 +15959,22 @@
         <v>820000</v>
       </c>
       <c r="C321" s="63" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D321" s="63" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E321" s="63" t="s">
         <v>1253</v>
       </c>
-      <c r="D321" s="63" t="s">
+      <c r="F321" s="63" t="s">
         <v>1254</v>
       </c>
-      <c r="E321" s="63" t="s">
+      <c r="G321" s="63" t="s">
         <v>1255</v>
       </c>
-      <c r="F321" s="63" t="s">
+      <c r="H321" s="64" t="s">
         <v>1256</v>
-      </c>
-      <c r="G321" s="63" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H321" s="64" t="s">
-        <v>1258</v>
       </c>
       <c r="I321" s="57">
         <v>36526</v>
@@ -15963,22 +15992,22 @@
         <v>820000</v>
       </c>
       <c r="C322" s="63" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D322" s="63" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E322" s="63" t="s">
         <v>1259</v>
       </c>
-      <c r="D322" s="63" t="s">
+      <c r="F322" s="63" t="s">
         <v>1260</v>
       </c>
-      <c r="E322" s="63" t="s">
+      <c r="G322" s="63" t="s">
         <v>1261</v>
       </c>
-      <c r="F322" s="63" t="s">
+      <c r="H322" s="64" t="s">
         <v>1262</v>
-      </c>
-      <c r="G322" s="63" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H322" s="64" t="s">
-        <v>1264</v>
       </c>
       <c r="I322" s="57">
         <v>36526</v>
@@ -15996,22 +16025,22 @@
         <v>820000</v>
       </c>
       <c r="C323" s="63" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D323" s="63" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E323" s="63" t="s">
         <v>1265</v>
       </c>
-      <c r="D323" s="63" t="s">
+      <c r="F323" s="63" t="s">
         <v>1266</v>
       </c>
-      <c r="E323" s="63" t="s">
+      <c r="G323" s="63" t="s">
         <v>1267</v>
       </c>
-      <c r="F323" s="63" t="s">
+      <c r="H323" s="64" t="s">
         <v>1268</v>
-      </c>
-      <c r="G323" s="63" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H323" s="64" t="s">
-        <v>1270</v>
       </c>
       <c r="I323" s="57">
         <v>36526</v>
@@ -16029,9 +16058,11 @@
         <v>800000</v>
       </c>
       <c r="C324" s="63" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D324" s="63"/>
+        <v>1396</v>
+      </c>
+      <c r="D324" s="63" t="s">
+        <v>1392</v>
+      </c>
       <c r="E324" s="63"/>
       <c r="F324" s="63"/>
       <c r="G324" s="63"/>
@@ -16041,7 +16072,7 @@
       </c>
       <c r="J324" t="str">
         <f t="shared" si="6"/>
-        <v>big6.push([830000,800000,'Information and Environmental Biases:','','','','','']);</v>
+        <v>big6.push([830000,800000,'Information and Environmental Biases',' Information and environmental biases result from limitations in data collection, media influence, and design constraints. These biases can impact the quality of available information and the scope of design solutions. Overcoming these biases involves seeking diverse data sources, minimizing media manipulation, and creatively navigating design constraints.','','','','']);</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -16052,22 +16083,22 @@
         <v>830000</v>
       </c>
       <c r="C325" s="63" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D325" s="63" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E325" s="63" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F325" s="63" t="s">
         <v>1272</v>
       </c>
-      <c r="D325" s="63" t="s">
+      <c r="G325" s="63" t="s">
         <v>1273</v>
       </c>
-      <c r="E325" s="63" t="s">
+      <c r="H325" s="64" t="s">
         <v>1274</v>
-      </c>
-      <c r="F325" s="63" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G325" s="63" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H325" s="64" t="s">
-        <v>1277</v>
       </c>
       <c r="I325" s="57">
         <v>36526</v>
@@ -16085,22 +16116,22 @@
         <v>830000</v>
       </c>
       <c r="C326" s="63" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D326" s="63" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E326" s="63" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F326" s="63" t="s">
         <v>1278</v>
       </c>
-      <c r="D326" s="63" t="s">
+      <c r="G326" s="63" t="s">
         <v>1279</v>
       </c>
-      <c r="E326" s="63" t="s">
+      <c r="H326" s="64" t="s">
         <v>1280</v>
-      </c>
-      <c r="F326" s="63" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G326" s="63" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H326" s="64" t="s">
-        <v>1283</v>
       </c>
       <c r="I326" s="57">
         <v>36526</v>
@@ -16118,22 +16149,22 @@
         <v>830000</v>
       </c>
       <c r="C327" s="63" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D327" s="63" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E327" s="63" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F327" s="63" t="s">
         <v>1284</v>
       </c>
-      <c r="D327" s="63" t="s">
+      <c r="G327" s="63" t="s">
         <v>1285</v>
       </c>
-      <c r="E327" s="63" t="s">
+      <c r="H327" s="64" t="s">
         <v>1286</v>
-      </c>
-      <c r="F327" s="63" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G327" s="63" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H327" s="64" t="s">
-        <v>1289</v>
       </c>
       <c r="I327" s="57">
         <v>36526</v>
@@ -16151,22 +16182,22 @@
         <v>830000</v>
       </c>
       <c r="C328" s="63" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D328" s="63" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E328" s="63" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F328" s="63" t="s">
         <v>1290</v>
       </c>
-      <c r="D328" s="63" t="s">
+      <c r="G328" s="63" t="s">
         <v>1291</v>
       </c>
-      <c r="E328" s="63" t="s">
+      <c r="H328" s="64" t="s">
         <v>1292</v>
-      </c>
-      <c r="F328" s="63" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G328" s="63" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H328" s="64" t="s">
-        <v>1295</v>
       </c>
       <c r="I328" s="57">
         <v>36526</v>
@@ -16184,22 +16215,22 @@
         <v>830000</v>
       </c>
       <c r="C329" s="63" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D329" s="63" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E329" s="63" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F329" s="63" t="s">
         <v>1296</v>
       </c>
-      <c r="D329" s="63" t="s">
+      <c r="G329" s="63" t="s">
         <v>1297</v>
       </c>
-      <c r="E329" s="63" t="s">
+      <c r="H329" s="64" t="s">
         <v>1298</v>
-      </c>
-      <c r="F329" s="63" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G329" s="63" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H329" s="64" t="s">
-        <v>1301</v>
       </c>
       <c r="I329" s="57">
         <v>36526</v>
@@ -16217,9 +16248,11 @@
         <v>800000</v>
       </c>
       <c r="C330" s="63" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D330" s="63"/>
+        <v>1397</v>
+      </c>
+      <c r="D330" s="63" t="s">
+        <v>1391</v>
+      </c>
       <c r="E330" s="63"/>
       <c r="F330" s="63"/>
       <c r="G330" s="63"/>
@@ -16229,7 +16262,7 @@
       </c>
       <c r="J330" t="str">
         <f t="shared" si="6"/>
-        <v>big6.push([840000,800000,'Emotional and Psychological Biases:','','','','','']);</v>
+        <v>big6.push([840000,800000,'Emotional and Psychological Biases','Emotional and psychological biases stem from our emotions, attitudes, and self-perceptions. They can influence how we perceive and interact with design elements. Understanding these biases is essential for creating emotionally engaging and empathetic designs that resonate with users on a deeper level.','','','','']);</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -16240,22 +16273,22 @@
         <v>840000</v>
       </c>
       <c r="C331" s="63" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D331" s="63" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E331" s="63" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F331" s="63" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G331" s="63" t="s">
         <v>1303</v>
       </c>
-      <c r="D331" s="63" t="s">
+      <c r="H331" s="64" t="s">
         <v>1304</v>
-      </c>
-      <c r="E331" s="63" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F331" s="63" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G331" s="63" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H331" s="64" t="s">
-        <v>1308</v>
       </c>
       <c r="I331" s="57">
         <v>36526</v>
@@ -16273,22 +16306,22 @@
         <v>840000</v>
       </c>
       <c r="C332" s="63" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D332" s="63" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E332" s="63" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F332" s="63" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G332" s="63" t="s">
         <v>1309</v>
       </c>
-      <c r="D332" s="63" t="s">
+      <c r="H332" s="64" t="s">
         <v>1310</v>
-      </c>
-      <c r="E332" s="63" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F332" s="63" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G332" s="63" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H332" s="64" t="s">
-        <v>1314</v>
       </c>
       <c r="I332" s="57">
         <v>36526</v>
@@ -16306,22 +16339,22 @@
         <v>840000</v>
       </c>
       <c r="C333" s="63" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D333" s="63" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E333" s="63" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F333" s="63" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G333" s="63" t="s">
         <v>1315</v>
       </c>
-      <c r="D333" s="63" t="s">
+      <c r="H333" s="64" t="s">
         <v>1316</v>
-      </c>
-      <c r="E333" s="63" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F333" s="63" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G333" s="63" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H333" s="64" t="s">
-        <v>1320</v>
       </c>
       <c r="I333" s="57">
         <v>36526</v>
@@ -16339,22 +16372,22 @@
         <v>840000</v>
       </c>
       <c r="C334" s="63" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D334" s="63" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E334" s="63" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F334" s="63" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G334" s="63" t="s">
         <v>1321</v>
       </c>
-      <c r="D334" s="63" t="s">
+      <c r="H334" s="64" t="s">
         <v>1322</v>
-      </c>
-      <c r="E334" s="63" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F334" s="63" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G334" s="63" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H334" s="64" t="s">
-        <v>1326</v>
       </c>
       <c r="I334" s="57">
         <v>36526</v>
@@ -16372,22 +16405,22 @@
         <v>840000</v>
       </c>
       <c r="C335" s="63" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D335" s="63" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E335" s="63" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F335" s="63" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G335" s="63" t="s">
         <v>1327</v>
       </c>
-      <c r="D335" s="63" t="s">
+      <c r="H335" s="64" t="s">
         <v>1328</v>
-      </c>
-      <c r="E335" s="63" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F335" s="63" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G335" s="63" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H335" s="64" t="s">
-        <v>1332</v>
       </c>
       <c r="I335" s="57">
         <v>36526</v>
@@ -16397,7 +16430,7 @@
         <v>big6.push([845000,840000,' Halo effect ',' Allowing one positive trait to influence overall judgment positively, potentially overlooking flaws. ','Positive brand perception, increased customer loyalty, and potential premium pricing. ',' Balanced assessment of strengths and weaknesses, better-informed judgments, and unbiased user opinions. ',' Overvalued products, potential brand arrogance, and unaddressed product shortcomings. ',' Objective user evaluation, product improvement, and potential competitive advantage. ']);</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" ht="15">
       <c r="A336" s="62">
         <v>850000</v>
       </c>
@@ -16405,9 +16438,11 @@
         <v>800000</v>
       </c>
       <c r="C336" s="63" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D336" s="63"/>
+        <v>1398</v>
+      </c>
+      <c r="D336" s="79" t="s">
+        <v>1390</v>
+      </c>
       <c r="E336" s="63"/>
       <c r="F336" s="63"/>
       <c r="G336" s="63"/>
@@ -16417,7 +16452,7 @@
       </c>
       <c r="J336" t="str">
         <f t="shared" si="6"/>
-        <v>big6.push([850000,800000,'Decision-making Biases:','','','','','']);</v>
+        <v>big6.push([850000,800000,'Decision-making Biases','Decision-making biases influence the choices we make in the design process. These biases can lead to suboptimal decisions, reluctance to embrace change, or irrational attachment to certain design features. Being aware of decision-making biases is crucial for fostering innovation and making user-centric choices.','','','','']);</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -16428,22 +16463,22 @@
         <v>850000</v>
       </c>
       <c r="C337" s="63" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D337" s="63" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E337" s="63" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F337" s="63" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G337" s="63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H337" s="64" t="s">
         <v>1334</v>
-      </c>
-      <c r="D337" s="63" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E337" s="63" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F337" s="63" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G337" s="63" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H337" s="64" t="s">
-        <v>1339</v>
       </c>
       <c r="I337" s="57">
         <v>36526</v>
@@ -16461,22 +16496,22 @@
         <v>850000</v>
       </c>
       <c r="C338" s="63" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D338" s="63" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E338" s="63" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F338" s="63" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G338" s="63" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H338" s="64" t="s">
         <v>1340</v>
-      </c>
-      <c r="D338" s="63" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E338" s="63" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F338" s="63" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G338" s="63" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H338" s="64" t="s">
-        <v>1345</v>
       </c>
       <c r="I338" s="57">
         <v>36526</v>
@@ -16494,22 +16529,22 @@
         <v>850000</v>
       </c>
       <c r="C339" s="63" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D339" s="63" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E339" s="63" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F339" s="63" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G339" s="63" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H339" s="64" t="s">
         <v>1346</v>
-      </c>
-      <c r="D339" s="63" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E339" s="63" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F339" s="63" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G339" s="63" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H339" s="64" t="s">
-        <v>1351</v>
       </c>
       <c r="I339" s="57">
         <v>36526</v>
@@ -16527,22 +16562,22 @@
         <v>850000</v>
       </c>
       <c r="C340" s="63" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D340" s="63" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E340" s="63" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F340" s="63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G340" s="63" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H340" s="64" t="s">
         <v>1352</v>
-      </c>
-      <c r="D340" s="63" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E340" s="63" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F340" s="63" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G340" s="63" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H340" s="64" t="s">
-        <v>1357</v>
       </c>
       <c r="I340" s="57">
         <v>36526</v>
@@ -16560,22 +16595,22 @@
         <v>850000</v>
       </c>
       <c r="C341" s="63" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D341" s="63" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E341" s="63" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F341" s="63" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G341" s="63" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H341" s="64" t="s">
         <v>1358</v>
-      </c>
-      <c r="D341" s="63" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E341" s="63" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F341" s="63" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G341" s="63" t="s">
-        <v>1362</v>
-      </c>
-      <c r="H341" s="64" t="s">
-        <v>1363</v>
       </c>
       <c r="I341" s="57">
         <v>36526</v>
@@ -16585,7 +16620,7 @@
         <v>big6.push([855000,850000,' Ambiguity aversion ',' Preferring clear, certain options over ambiguous ones, potentially limiting exploration of new possibilities.','Simplified decision-making, avoiding complex choices, and reduced uncertainty. ',' Embracing experimentation and innovation, exploring new solutions, and fostering creativity. ',' Missed opportunities for innovation, limited creativity, and potential resistance to change. ',' Enhanced creativity, exploration of possibilities, and openness to uncertainty. ']);</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" ht="15">
       <c r="A342" s="62">
         <v>860000</v>
       </c>
@@ -16593,9 +16628,11 @@
         <v>800000</v>
       </c>
       <c r="C342" s="63" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D342" s="63"/>
+        <v>1399</v>
+      </c>
+      <c r="D342" s="79" t="s">
+        <v>1389</v>
+      </c>
       <c r="E342" s="63"/>
       <c r="F342" s="63"/>
       <c r="G342" s="63"/>
@@ -16605,7 +16642,7 @@
       </c>
       <c r="J342" t="str">
         <f t="shared" si="6"/>
-        <v>big6.push([860000,800000,'Technology and Interface Biases:','','','','','']);</v>
+        <v>big6.push([860000,800000,'Technology and Interface Biases','Technology and interface biases arise from our interactions with digital solutions. They include overdependence on technology, interface design\'s impact on user behavior, and the influence of algorithms on user experiences. Addressing these biases involves striking a balance between technology use, designing intuitive interfaces, and reducing algorithmic discrimination.','','','','']);</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -16616,22 +16653,22 @@
         <v>860000</v>
       </c>
       <c r="C343" s="63" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="D343" s="63" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E343" s="63" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="F343" s="63" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="G343" s="63" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="H343" s="64" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="I343" s="57">
         <v>36526</v>
@@ -16649,22 +16686,22 @@
         <v>860000</v>
       </c>
       <c r="C344" s="63" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="D344" s="63" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E344" s="63" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="F344" s="63" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G344" s="63" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="H344" s="64" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="I344" s="57">
         <v>36526</v>
@@ -16682,22 +16719,22 @@
         <v>860000</v>
       </c>
       <c r="C345" s="63" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="D345" s="63" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="E345" s="63" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F345" s="63" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G345" s="63" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="H345" s="64" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="I345" s="57">
         <v>36526</v>
@@ -16715,22 +16752,22 @@
         <v>860000</v>
       </c>
       <c r="C346" s="63" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="D346" s="63" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="E346" s="63" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F346" s="63" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="G346" s="63" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="H346" s="64" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="I346" s="57">
         <v>36526</v>
@@ -16748,22 +16785,22 @@
         <v>860000</v>
       </c>
       <c r="C347" s="68" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D347" s="68" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="E347" s="68" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="F347" s="68" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="G347" s="68" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="H347" s="69" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I347" s="57">
         <v>36526</v>

--- a/semNavigateContent_Big6/data/2023103x - Draft DigiTinDir - Drivkraftpersonlighetstest.xlsx
+++ b/semNavigateContent_Big6/data/2023103x - Draft DigiTinDir - Drivkraftpersonlighetstest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\gormb\semNavigateContent\semNavigateContent_Big6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\s\gormb\semNavigateContent\semNavigateContent_Big6\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC77550-3D5A-4669-84F7-3DAED8EEBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F03CB-7C87-4BD7-AD53-F778A8E77E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lister" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">belief!$A$1:$H$366</definedName>
     <definedName name="EksterneData_1" localSheetId="3">'(kladd) Drivkraft konkretisert'!$A$1:$L$145</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId17"/>
   </pivotCaches>
@@ -5337,17 +5337,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pivot Table Category" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Pivot Table Corner" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -8593,7 +8593,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8891,11 +8891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -9101,7 +9101,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9133,7 +9133,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9167,7 +9167,7 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -9219,7 +9219,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -9257,7 +9257,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
@@ -9291,14 +9291,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
@@ -9340,7 +9339,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="55">
         <v>0</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>big6.push([0,-1,'Velg test','','','','','']);</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="55">
         <v>10000</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>big6.push([10000,0,'Test this tool','This is created to test the functionality of this tool','','','','']);</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="55">
         <v>11000</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>big6.push([11000,10000,'Trait 1','Explanation of Trait 1','','','','']);</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="55">
         <v>11100</v>
       </c>
@@ -9425,7 +9424,7 @@
       </c>
       <c r="I5" s="56"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="55">
         <v>11200</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>big6.push([11200,11000,'Trait 1 has two subtraits, this is the second','Trait 1 has two subtraits, this is the second','yes good 1.2','no good 1.2','yes bad 1.2','no bad 1.2']);</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="55">
         <v>12000</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>big6.push([12000,10000,'Motorcycles','This indicates if you like Motorcycles','I like to ride my Motorcycle','I feel safe, not riding a Motorcycle','I need to drive a Mptprcycle, or People will think I’m not a real man','I cannot afford to drive a Motorcycle']);</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="55">
         <v>13000</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>big6.push([13000,10000,'Trait 3','Trait 3','','','','']);</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="55">
         <v>13100</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>big6.push([13100,13000,'','','yes good 3','no good 3','yes bad 3','no bad 3']);</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="55">
         <v>14000</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>big6.push([14000,10000,'Trait 4','Trait 4','','','','']);</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>14100</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>big6.push([14100,14000,'Trait 4 subtrait 1','Trait 4 subtrait 1','','','','']);</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>14110</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>big6.push([14110,14100,'Trait 4 subtrait 1 attribute 1','Trait 4 subtrait 1 attribute 1','','','','']);</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>14111</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>big6.push([14111,14110,'','','411 yes good 1','411 no good 1','411 yes bad 1','411 no bad 1']);</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>14112</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>big6.push([14112,14110,'','','411 yes good 2','411 no good 2','411 yes bad 2','411 no bad 2']);</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14120</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>big6.push([14120,14100,'Trait 4 subtrait 1 attribute 2','','','','','']);</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14121</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>big6.push([14121,14120,'','','412 yes good 1','412 no good 1','412 yes bad 1','412 no bad 1']);</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>14122</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>big6.push([14122,14120,'','','412 yes good 2','412 no good 2','412 yes bad 2','412 no bad 2']);</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>14200</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>big6.push([14200,14000,'Trait 4 subtrait 2','','','','','']);</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>14210</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>big6.push([14210,14200,'Trait 4 subtrait 2 attribute 1','Trait 4 subtrait 2 attribute 1','','','','']);</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>14211</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>big6.push([14211,14210,'','','421 yes good 1','421 no good 1','421 yes bad 1','421 no bad 1']);</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>14212</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>big6.push([14212,14210,'','','421 yes good 2','421 no good 2','421 yes bad 2','421 no bad 2']);</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>14220</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>big6.push([14220,14200,'Trait 4 subtrait 2 attribute 2','','','','','']);</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>14221</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>big6.push([14221,14220,'','','422 yes good 1','422 no good 1','422 yes bad 1','422 no bad 1']);</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24">
         <v>14222</v>
       </c>
@@ -13982,7 +13981,7 @@
         <v>big6.push([162330,162300,' Behov for god sammenheng i regelverksutviklingen på tvers av sektorene for gode og effektive tjenester','','','','','']);</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="358.8" hidden="1">
+    <row r="242" spans="1:10" ht="358.8">
       <c r="A242" s="58">
         <v>200000</v>
       </c>
@@ -14008,7 +14007,7 @@
 The traits are considered to represent broad dimensions of personality and are used to describe and understand individual differences in personality characteristics. It\'s important to note that individuals can possess a combination of high and low scores on each trait, resulting in unique personality profiles.','','','','']);</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="58">
         <v>210000</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>big6.push([210000,200000,'Openness to Experience','This trait reflects a person\'s inclination towards novelty, imagination, creativity, and intellectual curiosity. Individuals high in openness tend to be imaginative, open-minded, adventurous, and appreciate art and beauty. Those low in openness are more conventional, practical, and prefer routine and familiarity.','','','','']);</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="58">
         <v>211000</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>big6.push([211000,210000,'','','Endless possibilities inspire me to explore new ideas and push the boundaries of what is known','I prefer sticking to what I know and feel comfortable with, as it provides a sense of security and predictability','The desire to embrace life\'s possibilities drives me to constantly seek new experiences and adventures, ensuring I have no regrets','The uncertainty surrounding the unknown inhibits me from venturing outside of my comfort zone and exploring new things']);</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="58">
         <v>212000</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>big6.push([212000,210000,'','','Embracing novel ideas and unconventional thinking expands my perspective and fosters personal growth','I find comfort in sticking to familiar routines and established methods, as they provide a sense of stability and security','Venturing into unexplored territories fuels my desire for constant self-improvement and discovery','The fear of the unknown prevents me from stepping outside of my comfort zone and trying new things']);</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="58">
         <v>220000</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>big6.push([220000,200000,'Conscientiousness','Conscientiousness refers to the degree of organization, responsibility, dependability, and self-discipline in an individual. Highly conscientious individuals are diligent, reliable, organized, and self-motivated, while those low in conscientiousness may be more spontaneous, laid-back, and less focused on details.','','','','']);</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10">
       <c r="A247" s="58">
         <v>221000</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>big6.push([221000,220000,'','','Setting high standards and striving for excellence allows me to achieve remarkable results and reach my full potential','Being less focused on details and rules allows me the freedom to explore different approaches and embrace spontaneity','The drive to excel and meet others\' expectations fuels my determination to meticulously plan and execute tasks flawlessly','The aversion to constraints and inflexible systems makes me reluctant to adhere to rules and rigid schedules']);</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10">
       <c r="A248" s="58">
         <v>222000</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>big6.push([222000,220000,'','','Being organized and detail-oriented allows me to stay on top of my responsibilities and achieve desired outcomes','I value flexibility and spontaneity, as they allow me to adapt and respond effectively to changing circumstances','Striving for perfection and meeting high standards propels me to excel in various aspects of life','The fear of restrictions and rigid structures makes me resist following rules and adhering to strict schedules']);</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10">
       <c r="A249" s="58">
         <v>230000</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>big6.push([230000,200000,'Extraversion','This trait captures a person\'s sociability, assertiveness, talkativeness, and level of outgoingness. Extroverted individuals tend to be energetic, enthusiastic, and seek social interactions. They are often described as outgoing and gain energy from being around others. Introverted individuals, on the other hand, prefer solitude, tend to be more reserved, and may feel drained by extensive social interactions.','','','','']);</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10">
       <c r="A250" s="58">
         <v>231000</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>big6.push([231000,230000,'','','The excitement of social interactions and the potential for new connections energize and inspire me to constantly seek out others','Solitude and introspection provide the necessary space to unleash my creativity and delve deeper into my thoughts and ideas','The preference to avoid feelings of loneliness and the fear of missing out on social opportunities motivate me to constantly seek the company of others','The discomfort associated with social interactions and overwhelming stimuli causes me to withdraw and steer clear of situations that may lead to unease']);</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:10" ht="14.25" customHeight="1">
       <c r="A251" s="58">
         <v>232000</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>big6.push([232000,230000,'','','Engaging in social activities energizes me and helps me thrive in dynamic and collaborative environments','I find solace in solitude and introspection, which provide the space for self-reflection and recharge','The fear of missing out on social opportunities drives me to seek the company of others and engage in social interactions','The fear of overwhelming social interactions and stimuli leads me to withdraw and avoid situations that may cause discomfort']);</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1">
+    <row r="252" spans="1:10">
       <c r="A252" s="58">
         <v>240000</v>
       </c>
@@ -14282,7 +14281,7 @@
         <v>big6.push([240000,200000,'Agreeableness','Agreeableness reflects a person\'s tendency to be compassionate, cooperative, empathetic, and considerate of others. Those high in agreeableness are typically friendly, helpful, trusting, and prioritize harmonious relationships. Individuals low in agreeableness may be more skeptical, competitive, and assertive.','','','','']);</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1">
+    <row r="253" spans="1:10">
       <c r="A253" s="58">
         <v>241000</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>big6.push([241000,240000,'','','The belief in the power of cooperation and compassion motivates me to create harmony and make a positive impact on others','Asserting my own needs and boundaries allows me the freedom to pursue my goals and desires without feeling restricted','The preference to maintain harmony and avoid conflict and disapproval drives me to prioritize peaceful interactions and steer clear of confrontations','The inclination to protect myself from vulnerability and dependency results in guardedness and prioritizing self-preservation over forming close relationships']);</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1">
+    <row r="254" spans="1:10">
       <c r="A254" s="58">
         <v>242000</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>big6.push([242000,240000,'','','Valuing harmony and empathy allows me to build strong and meaningful connections with others','Asserting my opinions and boundaries enables me to maintain my individuality and personal growth','The fear of conflict and disapproval drives me to prioritize maintaining peace and avoiding any confrontations','The fear of vulnerability and dependence leads me to be guarded and prioritize self-preservation over building close relationships']);</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1">
+    <row r="255" spans="1:10">
       <c r="A255" s="58">
         <v>250000</v>
       </c>
@@ -14365,7 +14364,7 @@
         <v>big6.push([250000,200000,'Neuroticism (Emotional Stability)','This trait refers to the degree of emotional stability and reactivity in an individual. Neuroticism encompasses traits such as anxiety, moodiness, irritability, and susceptibility to stress. Highly neurotic individuals may experience negative emotions more intensely and frequently, whereas those low in neuroticism tend to be more emotionally stable and resilient.','','','','']);</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10">
       <c r="A256" s="58">
         <v>251000</v>
       </c>
@@ -14394,7 +14393,7 @@
         <v>big6.push([251000,250000,'','','Being highly attuned to my emotions enables me to explore the depths of my feelings and gain valuable self-insight','A calm and resilient demeanor allows me to navigate life\'s challenges with composure and maintain a positive outlook','The heightened sensitivity to uncertainty and potential threats intensifies my emotional response, making me more prone to anxiety and stress','The motivation to avoid emotional turmoil and distress drives me to steer clear of situations that might trigger negative emotions, seeking stability and tranquility instead']);</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="A257" s="58">
         <v>252000</v>
       </c>
@@ -14423,7 +14422,7 @@
         <v>big6.push([252000,250000,'','','Being in touch with my emotions allows me to navigate and understand the complexities of human experience','Maintaining a calm and composed demeanor helps me cope with life\'s challenges and maintain emotional well-being','The fear of uncertainty and potential threats heightens my sensitivity to negative emotions, making me more prone to anxiety and stress','The fear of emotional turmoil and distress motivates me to avoid situations that may trigger negative emotions and seek stability and tranquility']);</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="A258" s="61">
         <v>300000</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>big6.push([300000,0,'Big 5 Mini - personlighetstest','Big Five-personlighetstesten, også kjent som Femfaktormodellen (FFM), er en mye brukt ramme i psykologien for å måle og beskrive personlighetstrekk. Disse trekkene betraktes som bredt dimensjoner av personlighet og brukes til å beskrive og forstå individuelle forskjeller i personlighetstrekk. Det er viktig å merke seg at enkeltpersoner kan ha en kombinasjon av høye og lave scorer på hvert trekk, noe som resulterer i unike personlighetsprofiler.','','','','']);</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="A259" s="61">
         <v>310000</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>big6.push([310000,300000,'Åpenhet for erfaring','Dette trekket gjenspeiler en persons tiltrekning mot nyhet, fantasi, kreativitet og intellektuell nysgjerrighet. Personer som er høye på åpenhet, har en tendens til å være fantasifulle, åpensinnede, eventyrlystne og sette pris på kunst og skjønnhet. De som er lave på åpenhet, er mer konvensjonelle, praktiske og foretrekker rutine og kjennskap.','','','','']);</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="A260" s="61">
         <v>311000</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>big6.push([311000,310000,'','','Endeløse muligheter inspirerer meg til å utforske nye ideer og utfordre grensene for det som er kjent','Foretrekker å holde meg til det jeg vet og føler meg komfortabel med, da det gir en følelse av sikkerhet og forutsigbarhet','Ønsket om å omfavne livets muligheter driver meg til stadig å søke nye opplevelser og eventyr, og sikre at jeg ikke har noen angrende tanker','Usikkerheten rundt det ukjente hindrer meg i å våge utenfor komfortsonen og utforske nye ting']);</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="A261" s="61">
         <v>312000</v>
       </c>
@@ -14531,7 +14530,7 @@
         <v>big6.push([312000,310000,'','','Å omfavne nye ideer og ukonvensjonell tenkning utvider perspektivet mitt og fremmer personlig vekst','Jeg finner trøst i å holde meg til kjente rutiner og etablerte metoder, da de gir en følelse av stabilitet og trygghet','Våge inn i uutforskede områder gir næring til mitt ønske om kontinuerlig selvforbedring og oppdagelse','Frykten for det ukjente hindrer meg i å trå utenfor komfortsonen og prøve nye ting']);</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="A262" s="61">
         <v>320000</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>big6.push([320000,300000,'Samvittighetsfullhet','Samvittighetsfullhet refererer til graden av organisasjon, ansvar, pålitelighet og selvdisiplin hos en person. Personer med høy samvittighetsfullhet er flittige, pålitelige, organiserte og selvmotiverte, mens de som er lave på samvittighetsfullhet kan være mer spontane, avslappede og mindre opptatt av detaljer.','','','','']);</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="A263" s="61">
         <v>321000</v>
       </c>
@@ -14585,7 +14584,7 @@
         <v>big6.push([321000,320000,'','','Å sette høye standarder og strebe etter ekspertise gjør at jeg kan oppnå bemerkelsesverdige resultater og nå mitt fulle potensial','Å være mindre opptatt av detaljer og regler gir meg friheten til å utforske ulike tilnærminger og omfavne spontanitet','Motivasjonen for å utmerke seg og møte andres forventninger driver min besluttsomhet til å planlegge og utføre oppgaver feilfritt','Motviljen mot begrensninger og stive systemer gjør meg motvillig til å følge regler og overholde strenge tidsplaner']);</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="A264" s="61">
         <v>322000</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>big6.push([322000,320000,'','','Å være organisert og detaljorientert gjør at jeg kan holde styr på mine ansvarsområder og oppnå ønskede resultater','Jeg verdsetter fleksibilitet og spontanitet, da det gir meg muligheten til å tilpasse meg og reagere effektivt på endrede omstendigheter','Streben etter perfeksjon og oppfyllelse av høye standarder driver meg til å utmerke meg på ulike områder i livet','Frykten for begrensninger og rigide strukturer gjør at jeg motsetter meg å følge regler og holde meg til strenge rutiner']);</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="A265" s="61">
         <v>330000</v>
       </c>
@@ -14639,7 +14638,7 @@
         <v>big6.push([330000,300000,'Ekstroversjon','Dette trekket fanger opp en persons sosialitet, pågåenhet, pratelyst og grad av utadvendthet. Utadvendte personer har en tendens til å være energiske, entusiastiske og søke sosiale interaksjoner. De blir ofte beskrevet som utadvendte og får energi av å være sammen med andre. Introverte personer foretrekker derimot å være alene, har en tendens til å være mer reserverte og kan føle seg utmattet av omfattende sosiale interaksjoner.','','','','']);</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="A266" s="61">
         <v>331000</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>big6.push([331000,330000,'','','Spenningen ved sosiale interaksjoner og muligheten for nye forbindelser energiserer og inspirerer meg til stadig å søke etter andre','Ensomhet og introspeksjon gir nødvendig plass for å utfolde min kreativitet og dykke dypere inn i mine tanker og ideer','Ønsket om å unngå følelsen av ensomhet og frykten for å gå glipp av sosiale muligheter motiverer meg til stadig å søke selskap av andre','Ubekvemheten knyttet til sosiale interaksjoner og overveldende stimuli får meg til å trekke meg tilbake og unngå situasjoner som kan føre til ubehag']);</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" s="61">
         <v>332000</v>
       </c>
@@ -14697,7 +14696,7 @@
         <v>big6.push([332000,330000,'','','Å engasjere seg i sosiale aktiviteter gir meg energi og hjelper meg å trives i dynamiske og samarbeidsorienterte miljøer','Jeg finner trøst i ensomhet og introspeksjon, som gir rom for selvrefleksjon og gjenopplading','Frykten for å gå glipp av sosiale muligheter driver meg til å søke selskap av andre og engasjere meg i sosiale interaksjoner','Frykten for overveldende sosiale interaksjoner og stimuli får meg til å trekke meg tilbake og unngå situasjoner som kan føre til ubehag']);</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" s="61">
         <v>340000</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>big6.push([340000,300000,'Vennlighet','Vennlighet gjenspeiler en persons tendens til å være medfølende, samarbeidsvillig, empatisk og hensynsfull overfor andre. De som er høye på vennlighet er vanligvis vennlige, hjelpsomme, tillitsfulle og prioriterer harmoniske relasjoner. Personer som er lave på vennlighet kan være mer skeptiske, konkurransedyktige og pågående.','','','','']);</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" s="61">
         <v>341000</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>big6.push([341000,340000,'','','Troen på samarbeid og medfølelse motiverer meg til å skape harmoni og ha en positiv innvirkning på andre','Å hevde mine egne behov og grenser gir meg friheten til å forfølge mine mål og ønsker uten å føle meg begrenset','Ønsket om å opprettholde harmoni og unngå konflikt og misbilligelse motiverer meg til å prioritere fredelige interaksjoner og unngå konfrontasjoner','Tendensen til å beskytte meg selv mot sårbarhet og avhengighet resulterer i forsiktighet og prioritering av selvbevaring fremfor å danne nære relasjoner']);</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="A270" s="61">
         <v>342000</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>big6.push([342000,340000,'','','Å verdsette harmoni og empati gjør at jeg kan bygge sterke og meningsfulle forbindelser med andre','Å hevde mine meninger og grenser gjør det mulig for meg å opprettholde min individualitet og personlig vekst','Frykten for konflikt og misbilligelse motiverer meg til å prioritere å opprettholde fred og unngå konfrontasjoner','Frykten for sårbarhet og avhengighet fører til forsiktighet og prioritering av selvbevaring fremfor å danne nære relasjoner']);</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="A271" s="61">
         <v>350000</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>big6.push([350000,300000,'Neurotisisme (Emosjonell stabilitet)','Dette trekket refererer til graden av emosjonell stabilitet og reaktivitet hos en person. Neurotisisme omfatter trekk som angst, humørsvingninger, irritabilitet og sårbarhet for stress. Personer med høy neurotisisme kan oppleve negative følelser mer intensivt og hyppigere, mens de som er lave på neurotisisme har en tendens til å være mer emosjonelt stabile og motstandsdyktige.','','','','']);</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="A272" s="61">
         <v>351000</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>big6.push([351000,350000,'','','Å være sterkt knyttet til mine følelser gjør at jeg kan utforske dybden av mine følelser og få verdifull selvforståelse','En rolig og motstandsdyktig væremåte gjør at jeg kan håndtere utfordringene i livet med fatning og opprettholde et positivt syn på fremtiden','Den økte følsomheten for usikkerhet og potensielle trusler intensiverer min emosjonelle respons og gjør meg mer sårbar for angst og stress','Motivasjonen for å unngå emosjonell uro og lidelse får meg til å holde meg til kjente og trygge rutiner og situasjoner']);</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10">
       <c r="A273" s="61">
         <v>352000</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>big6.push([352000,350000,'','','Dyp refleksjon over mine følelser og indre tilstander gir meg innsikt og muligheten til å vokse personlig og følelsesmessig','Evnen til å holde meg rolig og håndtere stressende situasjoner uten å miste fatningen hjelper meg med å opprettholde en balansert tilstand av sinnsro og velvære','Den økte sårbarheten for emosjonelle utfordringer gjør meg oppmerksom på mine reaksjoner og gir meg muligheten til å utvikle mestringsstrategier og støtte','Tendensen til å unngå emosjonell uro og negativitet fører meg til å holde meg til det kjente og forutsigbare']);</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="193.2" hidden="1">
+    <row r="274" spans="1:10" ht="193.2">
       <c r="A274" s="58">
         <v>400000</v>
       </c>
@@ -14888,7 +14887,7 @@
         <v>big6.push([400000,1,'Job Candidate','Evaluating candidates based on their responses to these statements can provide valuable insights into their mindset, skills, and adaptability. Remember to use these statements as part of a larger evaluation process to make well-rounded hiring decisions.','','','','']);</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10">
       <c r="A275" s="58">
         <v>410000</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>big6.push([410000,400000,'Technical Skills','Technical skills refer to a candidate\'s proficiency in specific tools, technologies, and methodologies relevant to their field of expertise. These abilities enable individuals to execute tasks effectively, demonstrate expertise, and adapt to changing technological landscapes. Proficiency in programming languages, software applications, data analysis, and other technical competencies are crucial for success in various roles, from software development to engineering and beyond.','','','','']);</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10">
       <c r="A276" s="58">
         <v>411000</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>big6.push([411000,410000,'','',' I am excited about exploring new technologies and finding innovative ways to apply them in my work. ',' I have limited experience with the specific tools and technologies required for this job, but I\'m eager to learn. ',' I prefer to stick to the technologies and tools I\'m already familiar with rather than experimenting with unfamiliar ones. ',' I have little to no experience with the required technical skills, and I am hesitant to acquire them. ']);</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1">
+    <row r="277" spans="1:10">
       <c r="A277" s="58">
         <v>412000</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>big6.push([412000,410000,'','',' I believe in continuous learning and am always eager to acquire new technical skills to stay ahead in my field. ',' While I lack expertise in certain technical areas, I am confident in my ability to adapt and grow. ',' I feel more comfortable relying on my existing expertise rather than investing time in learning new technical skills. ',' I feel uncomfortable taking on projects that demand technical expertise beyond my current abilities. ']);</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1">
+    <row r="278" spans="1:10">
       <c r="A278" s="58">
         <v>420000</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>big6.push([420000,400000,'Problem-Solving and Critical Thinking','Problem-solving and critical thinking encompass a candidate\'s ability to analyze complex issues, identify viable solutions, and make informed decisions. These skills involve gathering information, evaluating alternatives, and considering potential consequences to reach optimal conclusions. Candidates who exhibit strong problem-solving and critical thinking skills demonstrate adaptability, creativity, and a capacity to handle challenges effectively in various work scenarios.','','','','']);</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1">
+    <row r="279" spans="1:10">
       <c r="A279" s="58">
         <v>421000</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>big6.push([421000,420000,'','',' I enjoy taking on complex challenges, as they provide opportunities for creative problem-solving and personal growth. ',' I am not always confident in my problem-solving abilities but enjoy challenging myself to find solutions. ',' When faced with complex problems, I tend to look for established solutions and avoid taking unnecessary risks. ',' I struggle with solving complex problems and often seek others\' help to overcome challenges. ']);</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1">
+    <row r="280" spans="1:10">
       <c r="A280" s="58">
         <v>422000</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>big6.push([422000,420000,'','',' I believe that trying new approaches, even if they carry some uncertainty, can lead to breakthrough solutions. ',' While I may lack experience in handling complex problems, I\'m willing to invest effort to improve. ',' I am cautious about experimenting with unproven problem-solving methods, as I fear the potential for failure. ',' I tend to avoid tackling complex problems, as I fear making mistakes or reaching ineffective solutions. ']);</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1">
+    <row r="281" spans="1:10">
       <c r="A281" s="58">
         <v>430000</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>big6.push([430000,400000,'Communication and Interpersonal Skills','Communication and interpersonal skills encompass a candidate\'s capacity to convey ideas clearly, actively listen, and collaborate effectively with team members. Strong communication fosters a positive work environment and promotes successful teamwork, project execution, and client relationships. It involves articulating thoughts, providing constructive feedback, and resolving conflicts while maintaining respect and understanding.','','','','']);</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10">
       <c r="A282" s="58">
         <v>431000</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>big6.push([431000,430000,'','',' I value open communication and actively seek out opportunities to collaborate and share ideas with my team. ',' I find it challenging to express my ideas clearly but am open to feedback and opportunities to improve. ',' In group settings, I prefer to listen and observe rather than actively contribute, to avoid saying the wrong thing. ',' I often hesitate to engage in open communication due to my fear of miscommunication or conflict. ']);</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10">
       <c r="A283" s="58">
         <v>432000</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>big6.push([432000,430000,'','',' I enjoy participating in group discussions and feel energized by exchanging thoughts and perspectives. ',' Though I lack confidence in group discussions, I am willing to work on my communication skills. ',' I sometimes find it challenging to express my ideas openly in fear of potential misunderstandings. ',' I tend to avoid participating in group discussions, fearing that I may say the wrong things. ']);</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10">
       <c r="A284" s="58">
         <v>440000</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>big6.push([440000,400000,'Cultural Fit and Personality Assessment','Cultural fit and personality assessment involve evaluating a candidate\'s alignment with the organization\'s values, mission, and work environment. Assessing cultural fit ensures potential employees will thrive within the company\'s ethos, enhancing team dynamics and overall productivity. Personality traits, such as adaptability, emotional intelligence, and collaboration, are also essential indicators of how candidates will integrate into the company\'s culture.','','','','']);</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10">
       <c r="A285" s="58">
         <v>441000</v>
       </c>
@@ -15191,7 +15190,7 @@
         <v>big6.push([441000,440000,'','',' I believe that taking calculated risks can lead to significant rewards and foster a culture of innovation. ',' I may not be fully comfortable with risk-taking, but I\'m open to learning and adapting to a dynamic culture. ',' I prefer a stable and predictable work environment where the focus is on maintaining the status quo. ',' I am risk-averse and may struggle to align with a culture that values taking calculated risks. ']);</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10">
       <c r="A286" s="58">
         <v>442000</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>big6.push([442000,440000,'','',' I am enthusiastic about working in a dynamic environment that encourages employees to explore new possibilities. ',' While I\'m not the most innovative person, I believe I can contribute positively to a culture that fosters growth. ',' I tend to be cautious when it comes to embracing changes, as they may introduce unforeseen risks. ',' I avoid thinking about long-term goals, as I prefer to focus on short-term accomplishments. ']);</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10">
       <c r="A287" s="58">
         <v>450000</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>big6.push([450000,400000,'Long-Term Goals and Motivation','Long-term goals and motivation refer to a candidate\'s aspirations and determination to achieve personal and professional objectives. Candidates with clear and ambitious long-term goals demonstrate a commitment to growth and self-improvement, indicating a higher potential for contributing positively to the organization. Motivated individuals possess the drive and resilience to pursue their objectives, leading to higher levels of productivity and engagement.','','','','']);</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10">
       <c r="A288" s="58">
         <v>451000</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>big6.push([451000,450000,'','',' I am motivated by the opportunity to make a meaningful impact and create positive change in my career. ',' I have not yet fully defined my long-term career goals but am open to exploring various possibilities. ',' I prefer not to set ambitious long-term goals, as I fear failure or not being able to achieve them. ',' I don\'t pay much attention to industry trends, as I prefer to rely on my existing knowledge and methods. ']);</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10">
       <c r="A289" s="58">
         <v>452000</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>big6.push([452000,450000,'','',' Setting ambitious goals excites me, and I am driven to push my boundaries and achieve extraordinary outcomes. ',' While I lack clarity in my long-term goals, I\'m motivated to discover my passion and pursue it. ',' I avoid thinking about long-term goals, as I prefer to focus on short-term accomplishments. ',' I am hesitant to invest time in understanding new industry trends, as I believe they may not significantly impact my work. ']);</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1">
+    <row r="290" spans="1:10">
       <c r="A290" s="58">
         <v>460000</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>big6.push([460000,400000,'Industry Knowledge and Trends','Industry knowledge and trends encompass a candidate\'s awareness of current developments, advancements, and market dynamics within their respective field. Staying up-to-date with industry trends showcases a candidate\'s dedication to continuous learning and adaptability to changing demands. A thorough understanding of industry best practices and emerging technologies positions individuals to make informed decisions and stay competitive in their professional domain','','','','']);</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10">
       <c r="A291" s="58">
         <v>461000</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>big6.push([461000,460000,'','',' I keep myself updated on industry trends and emerging technologies to identify new opportunities for growth. ',' I might not be up-to-date with all the recent industry trends, but I\'m eager to stay informed and learn. ',' I am cautious about changes in the industry and prefer to rely on established practices to avoid risks. ',' I have little to no experience with the required technical skills, and I am hesitant to acquire them. ']);</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10">
       <c r="A292" s="58">
         <v>462000</v>
       </c>
@@ -15378,7 +15377,7 @@
         <v>big6.push([462000,460000,'','',' I enjoy exploring potential disruptions in the industry, as they may lead to untapped possibilities. ',' While I lack in-depth knowledge of current industry trends, I\'m curious to explore and understand them better. ',' I am hesitant to invest time in understanding new industry trends, as I believe they may not significantly impact my work. ',' I tend to be skeptical about the long-term impact of emerging trends until they prove their worth. ']);</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10">
       <c r="A293" s="57">
         <v>500000</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>big6.push([500000,0,'Kandidattest','','','','','']);</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="57">
         <v>510000</v>
       </c>
@@ -15417,7 +15416,7 @@
         <v>big6.push([510000,500000,'Teknisk Ferdighetsvurdering','Teknisk ferdighetsvurdering omfatter en kandidats kompetanse innen spesifikke verktøy, teknologier og metoder som er relevante for deres ekspertiseområde. Disse ferdighetene gjør individene i stand til å utføre oppgaver effektivt, demonstrere ekspertise og tilpasse seg skiftende teknologiske landskap. Beherskelse av programmeringsspråk, programvareapplikasjoner, dataanalyse og andre tekniske kompetanser er avgjørende for suksess i ulike roller, fra programvareutvikling til ingeniørfag og videre.','','','','']);</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1">
+    <row r="295" spans="1:10">
       <c r="A295" s="57">
         <v>511000</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>big6.push([511000,510000,'','',' Jeg gleder meg til å utforske nye teknologier og finne innovative måter å anvende dem i arbeidet mitt. ',' Jeg har begrenset erfaring med de spesifikke verktøyene og teknologiene som kreves for denne jobben, men jeg er ivrig etter å lære. ',' Jeg foretrekker å holde meg til teknologiene og verktøyene jeg allerede er kjent med, heller enn å eksperimentere med ukjente. ',' Jeg har liten eller ingen erfaring med de nødvendige tekniske ferdighetene, og jeg nøler med å skaffe dem. ']);</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1">
+    <row r="296" spans="1:10">
       <c r="A296" s="57">
         <v>512000</v>
       </c>
@@ -15471,7 +15470,7 @@
         <v>big6.push([512000,510000,'','',' Jeg tror på kontinuerlig læring og er alltid ivrig etter å skaffe nye tekniske ferdigheter for å holde meg oppdatert. ',' Selv om jeg mangler ekspertise på visse tekniske områder, er jeg trygg på min evne til å tilpasse meg og vokse. ',' Jeg føler meg mer komfortabel med å stole på min eksisterende ekspertise i stedet for å investere tid i å lære nye tekniske ferdigheter. ',' Jeg føler meg ukomfortabel med å ta på meg prosjekter som krever tekniske ferdigheter utover mine nåværende evner. ']);</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1">
+    <row r="297" spans="1:10">
       <c r="A297" s="57">
         <v>513000</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>big6.push([513000,510001,'','',' Mine tekniske ferdigheter er et styrkeområde, og jeg er alltid på utkikk etter muligheter for å bruke dem til å løse utfordringer. ',' Selv om jeg har begrenset erfaring med noen teknologier, er jeg sikker på at jeg kan lære raskt og effektivt. ',' Jeg fokuserer primært på ikke-tekniske aspekter av jobben min og foretrekker å delegere tekniske oppgaver til andre. ',' Mine tekniske ferdigheter er begrensede, og jeg har liten interesse for å utvide dem. ']);</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1">
+    <row r="298" spans="1:10">
       <c r="A298" s="57">
         <v>514000</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>big6.push([514000,510002,'','',' Jeg har erfaring med et bredt spekter av teknologier og føler meg komfortabel med å håndtere komplekse tekniske utfordringer. ',' Mine tekniske ferdigheter er ikke helt oppdaterte, men jeg har en plan for å forbedre dem gjennom kurs og opplæring. ',' Jeg fokuserer hovedsakelig på det jeg allerede kan, og jeg er skeptisk til å prøve nye teknologier som kan innebære risiko. ',' Mine tekniske ferdigheter er utilstrekkelige for å møte kravene i denne stillingen, og jeg tviler på min evne til å utvikle dem tilstrekkelig. ']);</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1">
+    <row r="299" spans="1:10">
       <c r="A299" s="57">
         <v>515000</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>big6.push([515000,510003,'','',' Jeg ser på tekniske utfordringer som spennende muligheter for å lære og utvikle meg, og jeg tar initiativ til å forbedre mine ferdigheter. ',' Jeg har ikke mye erfaring med de spesifikke tekniske verktøyene som brukes i denne stillingen, men jeg har tro på min evne til å mestre dem. ',' Jeg er tilfreds med min nåværende tekniske kompetanse og føler ingen behov for å utvide den ytterligere. ',' Mine tekniske ferdigheter er begrensede, og jeg er usikker på om jeg noensinne vil kunne bli dyktig innen dette området. ']);</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10">
       <c r="A300" s="57">
         <v>520000</v>
       </c>
@@ -15573,7 +15572,7 @@
         <v>big6.push([520000,500000,'Problemløsning og Kritisk tenking','Problemløsning og kritisk tenking omfatter en kandidats evne til å analysere komplekse problemstillinger, identifisere levedyktige løsninger og fatte informerte beslutninger. Disse ferdighetene innebærer å samle informasjon, vurdere alternativer og vurdere potensielle konsekvenser for å nå optimale konklusjoner. Kandidater som viser sterke problemløsnings- og kritisk tenkningsevner, demonstrerer evnen til å tilpasse seg, kreativitet og evne til å håndtere utfordringer effektivt i ulike arbeidssituasjoner.','','','','']);</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10">
       <c r="A301" s="57">
         <v>521000</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>big6.push([521000,520000,'','',' Jeg liker å ta på meg komplekse utfordringer, da de gir muligheter for kreativ problemløsning og personlig vekst. ',' Jeg er ikke alltid trygg på mine problemløsningsevner, men jeg liker å utfordre meg selv for å finne løsninger. ',' Når jeg står overfor komplekse problemer, har jeg en tendens til å se etter etablerte løsninger og unngå unødvendige risikoer. ',' Jeg sliter med å løse komplekse problemer og søker ofte hjelp fra andre for å overkomme utfordringer. ']);</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10">
       <c r="A302" s="57">
         <v>522000</v>
       </c>
@@ -15627,7 +15626,7 @@
         <v>big6.push([522000,520000,'','',' Jeg tror at å prøve nye tilnærminger, selv om de innebærer noe usikkerhet, kan føre til gjennombruddsløsninger. ',' Selv om jeg mangler erfaring med å håndtere komplekse problemer, er jeg villig til å investere innsats for å forbedre meg. ',' Jeg er forsiktig med å eksperimentere med uprøvde problemløsningsmetoder, da jeg frykter muligheten for feil. ',' Jeg unngår å takle komplekse problemer, da jeg frykter feil eller ineffektive løsninger. ']);</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10">
       <c r="A303" s="57">
         <v>523000</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>big6.push([523000,520000,'','',' Jeg trives med utfordringer og ser på dem som muligheter for å utvikle mine problemløsningsevner. ',' Selv om jeg ikke alltid føler meg trygg i komplekse situasjoner, motiverer det meg til å lære og forbedre meg. ',' Jeg foretrekker å overlate problemløsning til andre og fokusere på mine egne ansvarsområder. ',' Jeg har liten tillit til mine evner til å løse komplekse problemer, og jeg unngår ofte slike situasjoner. ']);</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10">
       <c r="A304" s="57">
         <v>524000</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>big6.push([524000,520000,'','',' Jeg ser på problemløsning som en essensiell del av jobben min, og jeg søker stadig nye måter å forbedre arbeidsprosesser på. ',' Selv om jeg ikke alltid har løsningsalternativer klare, er jeg villig til å konsultere kolleger og samarbeide for å finne de beste løsningene. ',' Jeg følger vanligvis etablerte metoder for problemløsning, da jeg foretrekker å unngå risikofylte eksperimenter. ',' Jeg har vanskelig for å takle komplekse problemer alene, og jeg blir ofte overveldet av slike utfordringer. ']);</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1">
+    <row r="305" spans="1:12">
       <c r="A305" s="57">
         <v>525000</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>big6.push([525000,520000,'','',' Jeg føler meg komfortabel med å utforske flere alternativer når jeg løser problemer, og jeg er ikke redd for å ta risikoer hvis det er nødvendig. ',' Jeg kan føle meg usikker når jeg står overfor komplekse problemer, men jeg vet at jeg kan lære og forbedre mine ferdigheter. ',' Jeg er motvillig til å forlate kjente løsninger, da jeg frykter at ukjente metoder kan føre til feil eller forsinkelser. ',' Jeg har liten tro på mine problemløsningsevner, og jeg foretrekker å søke hjelp fra andre i stedet for å ta på meg utfordringer selv. ']);</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1">
+    <row r="306" spans="1:12">
       <c r="A306" s="57">
         <v>530000</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>big6.push([530000,500000,'Kommunikasjon og Interpersonlige Ferdigheter','Kommunikasjon og interpersonlige ferdigheter omfatter en kandidats evne til å formidle ideer klart, lytte aktivt og samarbeide effektivt med teammedlemmer. Sterk kommunikasjon fremmer et positivt arbeidsmiljø og bidrar til vellykket teamwork, prosjektutførelse og kundeforhold. Det innebærer å uttrykke tanker, gi konstruktiv tilbakemelding og løse konflikter samtidig som respekt og forståelse opprettholdes.','','','','']);</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1">
+    <row r="307" spans="1:12">
       <c r="A307" s="57">
         <v>531000</v>
       </c>
@@ -15758,7 +15757,7 @@
       <c r="K307" s="64"/>
       <c r="L307" s="65"/>
     </row>
-    <row r="308" spans="1:12" hidden="1">
+    <row r="308" spans="1:12">
       <c r="A308" s="57">
         <v>532000</v>
       </c>
@@ -15787,7 +15786,7 @@
       <c r="K308" s="64"/>
       <c r="L308" s="65"/>
     </row>
-    <row r="309" spans="1:12" hidden="1">
+    <row r="309" spans="1:12">
       <c r="A309" s="57">
         <v>533000</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>big6.push([533000,530000,'','',' Jeg tror at tydelig kommunikasjon er en nøkkel til vellykket samarbeid, og jeg tar initiativ til å bidra til diskusjoner. ',' Selv om jeg har noen utfordringer med kommunikasjon, tar jeg aktivt del i teammøter for å forbedre mine ferdigheter. ',' Jeg er mer komfortabel med å kommunisere skriftlig enn muntlig, og jeg unngår ofte gruppediskusjoner. ',' Jeg har lav selvtillit når det kommer til kommunikasjon, og jeg føler meg ofte usynlig i gruppesammenhenger. ']);</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1">
+    <row r="310" spans="1:12">
       <c r="A310" s="57">
         <v>534000</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>big6.push([534000,530000,'','',' Jeg er trygg på mine kommunikasjonsevner, og jeg er åpen for å gi og motta konstruktiv tilbakemelding for å forbedre meg. ',' Selv om jeg noen ganger kan føle meg usikker på mine kommunikasjonsevner, er jeg villig til å ta sjanser for å uttrykke mine ideer. ',' Jeg unngår ofte konflikter ved å ikke uttrykke mine meninger eller bekymringer i gruppesammenhenger. ',' Jeg er redd for å uttrykke mine meninger, da jeg frykter at de vil bli avvist av andre. ']);</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1">
+    <row r="311" spans="1:12">
       <c r="A311" s="57">
         <v>535000</v>
       </c>
@@ -15868,7 +15867,7 @@
         <v>big6.push([535000,530000,'','',' Jeg tror på åpen og ærlig kommunikasjon, og jeg tar initiativ til å skape en inkluderende atmosfære i teamet mitt. ',' Selv om jeg noen ganger kan være reservert i gruppesammenhenger, prøver jeg å utvikle mine kommunikasjonsevner gjennom praksis. ',' Jeg er tilbakeholden med å uttrykke mine tanker og ideer, da jeg er redd for å bli kritisert av mine kolleger. ',' Jeg unngår å ta på meg oppgaver som krever sterk kommunikasjonsevne, da jeg er usikker på mine evner på dette området. ']);</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1">
+    <row r="312" spans="1:12">
       <c r="A312" s="57">
         <v>540000</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>big6.push([540000,500000,'Kultur og Personlighetsvurdering','Kultur og personlighetsvurdering innebærer å vurdere i hvilken grad en kandidat passer inn i organisasjonens verdier, mål og arbeidsmiljø. Å vurdere kulturell tilpasning sikrer at potensielle ansatte vil trives i samsvar med bedriftens etos og forbedrer teamdynamikk og produktivitet. Personlighetstrekk som tilpasningsdyktighet, emosjonell intelligens og samarbeidsevner er også viktige indikatorer på hvordan kandidater vil integrere seg i bedriftens kultur.','','','','']);</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1">
+    <row r="313" spans="1:12">
       <c r="A313" s="57">
         <v>541000</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>big6.push([541000,540000,'','',' Jeg tror at å ta kalkulerte risikoer kan føre til betydelige belønninger og fremme en kultur for innovasjon. ',' Jeg er kanskje ikke helt komfortabel med risikotaking, men jeg er åpen for læring og tilpasning til en dynamisk kultur. ',' Jeg foretrekker en stabil og forutsigbar arbeidsmiljø der fokus er på å opprettholde status quo. ',' Jeg er risikoavers og kan ha problemer med å tilpasse meg en kultur som verdsetter kalkulerte risikoer. ']);</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1">
+    <row r="314" spans="1:12">
       <c r="A314" s="57">
         <v>542000</v>
       </c>
@@ -15943,7 +15942,7 @@
         <v>big6.push([542000,540000,'','',' Jeg er entusiastisk med å jobbe i en dynamisk arbeidsmiljø som oppmuntrer ansatte til å utforske nye muligheter. ',' Selv om jeg ikke regnes som den mest innovative personen, tror jeg at jeg kan bidra positivt til en kultur for kontinuerlig forbedring. ',' Jeg er forsiktig med å omfavne endringer i bransjen, da de kan introdusere uforutsette risikoer. ',' Jeg foretrekker en arbeidsmiljø der risikotaking er minimal, og jeg er skeptisk til endringer som kan forstyrre stabiliteten. ']);</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1">
+    <row r="315" spans="1:12">
       <c r="A315" s="57">
         <v>543000</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>big6.push([543000,540000,'','',' Jeg verdsetter en kultur for samarbeid og gjensidig støtte, der ideer blir delt og kolleger støtter hverandre. ',' Selv om jeg noen ganger kan føle meg ut av komfortsonen, søker jeg å tilpasse meg og bidra positivt til et teammiljø. ',' Jeg er mer komfortabel med å jobbe uavhengig og trives med å løse oppgaver på egen hånd. ',' Jeg har vanskelig for å tilpasse meg et samarbeidsorientert arbeidsmiljø, da jeg trives bedre alene. ']);</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1">
+    <row r="316" spans="1:12">
       <c r="A316" s="57">
         <v>544000</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>big6.push([544000,540000,'','',' Jeg ser på en positiv arbeidskultur som essensiell for trivsel og suksess, og jeg prøver å spre positivitet rundt meg. ',' Selv om jeg ikke alltid er den mest utadvendte personen, setter jeg pris på en positiv arbeidskultur og ønsker å bidra til den. ',' Jeg kan være reservert og motvillig til å engasjere meg i å bygge en positiv arbeidskultur. ',' Jeg føler meg ikke som en god kulturell match for arbeidsmiljøet, og jeg kan ha problemer med å tilpasse meg til bedriftens verdier. ']);</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1">
+    <row r="317" spans="1:12">
       <c r="A317" s="57">
         <v>545000</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>big6.push([545000,540000,'','',' Jeg tror på å bygge et inkluderende arbeidsmiljø der forskjellige perspektiver blir verdsatt og feiret. ',' Selv om jeg ikke alltid er den mest sosiale personen, søker jeg å respektere og forstå mine kollegers ulike perspektiver. ',' Jeg er tilbakeholden med å inkludere andre i beslutningsprosesser, da jeg foretrekker å jobbe selvstendig. ',' Jeg tror ikke at jeg passer godt inn i arbeidsmiljøet, og jeg føler meg ofte isolert fra teamet mitt. ']);</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1">
+    <row r="318" spans="1:12">
       <c r="A318" s="57">
         <v>550000</v>
       </c>
@@ -16045,7 +16044,7 @@
         <v>big6.push([550000,500000,'Langsiktige Mål og Motivasjon','Langsiktige mål og motivasjon refererer til en kandidats aspirasjoner og vilje til å oppnå personlige og faglige mål. Kandidater med klare og ambisiøse langsiktige mål demonstrerer forpliktelse til vekst og selvforbedring, noe som indikerer høy potensial for å bidra positivt til organisasjonen. Motiverte individer besitter drivkraft og utholdenhet for å forfølge målene sine, noe som fører til høyere produktivitet og engasjement.','','','','']);</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1">
+    <row r="319" spans="1:12">
       <c r="A319" s="57">
         <v>551000</v>
       </c>
@@ -16072,7 +16071,7 @@
         <v>big6.push([551000,550000,'','',' Jeg blir motivert av muligheten til å gjøre en meningsfylt innvirkning og skape positiv endring i karrieren min. ',' Jeg har ennå ikke fullstendig definert mine langsiktige karrieremål, men jeg er åpen for å utforske ulike muligheter. ',' Jeg foretrekker å ikke sette ambisiøse langsiktige mål, da jeg frykter at jeg kan mislykkes eller ikke kunne oppnå dem. ',' Jeg bryr meg ikke mye om bransjetrender, da jeg foretrekker å stole på min eksisterende kunnskap og metoder. ']);</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1">
+    <row r="320" spans="1:12">
       <c r="A320" s="57">
         <v>552000</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>big6.push([552000,550000,'','',' Å sette ambisiøse mål inspirerer meg, og jeg er drevet til å utfordre mine grenser og oppnå ekstraordinære resultater. ',' Selv om jeg mangler klarhet i mine langsiktige mål, er jeg motivert for å oppdage min lidenskap og forfølge den. ',' Jeg unngår å tenke på langsiktige mål, da jeg foretrekker å fokusere på kortsiktige prestasjoner. ',' Jeg er skeptisk til å investere tid i å forstå nye bransjetrender, da jeg tror de kanskje ikke påvirker mitt arbeid betydelig. ']);</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1">
+    <row r="321" spans="1:10">
       <c r="A321" s="57">
         <v>553000</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>big6.push([553000,550000,'','',' Jeg ser på min karriere som en kontinuerlig reise mot personlig vekst, og jeg er villig til å utforske nye muligheter. ',' Selv om mine langsiktige mål ikke er helt klare, har jeg tro på at jeg vil finne meningsfulle retninger å forfølge. ',' Jeg føler meg mer komfortabel med å holde meg til min nåværende jobb og rolle i stedet for å ta risikoen ved å prøve noe nytt. ',' Jeg har liten interesse for å sette langsiktige mål og er fornøyd med å leve i nået uten mye planlegging for fremtiden. ']);</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1">
+    <row r="322" spans="1:10">
       <c r="A322" s="57">
         <v>554000</v>
       </c>
@@ -16153,7 +16152,7 @@
         <v>big6.push([554000,550000,'','',' Jeg føler meg trygg på mine langsiktige mål, og jeg tar proaktive skritt for å nå dem gjennom hardt arbeid og dedikasjon. ',' Selv om jeg ikke er helt sikker på min karrierevei, har jeg tro på at jeg vil ta riktige avgjørelser etter hvert som jeg lærer og vokser. ',' Jeg føler meg usikker på mine langsiktige mål, og jeg unngår ofte å ta initiativ for å nå dem. ',' Jeg tviler ofte på min evne til å oppnå mine langsiktige mål, og jeg unngår å sette for store forventninger til meg selv. ']);</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1">
+    <row r="323" spans="1:10">
       <c r="A323" s="57">
         <v>555000</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>big6.push([555000,550000,'','',' Jeg er drevet av min indre lidenskap og ser på mine langsiktige mål som en kontinuerlig kilde til motivasjon. ',' Selv om jeg ikke alltid er sikker på mine langsiktige mål, er jeg villig til å utforske og finne veien som passer meg best. ',' Jeg føler meg ikke så motivert av langsiktige mål, da jeg trives bedre med å ta små steg mot konkrete prestasjoner. ',' Jeg er skeptisk til viktigheten av langsiktige mål og trives bedre med å ta dagen som den kommer uten store planer for fremtiden. ']);</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1">
+    <row r="324" spans="1:10">
       <c r="A324" s="57">
         <v>560000</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>big6.push([560000,500000,'Bransjekunnskap og Trender','Bransjekunnskap og trender omfatter en kandidats bevissthet om nåværende utviklinger, fremskritt og markedsdynamikk innenfor deres respektive felt. Å holde seg oppdatert med bransjetrender viser kandidatens dedikasjon til kontinuerlig læring og evne til å tilpasse seg endrede krav. En grundig forståelse av bransjens beste praksis og fremvoksende teknologier posisjonerer enkeltpersoner til å ta informerte beslutninger og være konkurransedyktige innenfor sitt profesjonelle domene.','','','','']);</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1">
+    <row r="325" spans="1:10">
       <c r="A325" s="57">
         <v>561000</v>
       </c>
@@ -16228,7 +16227,7 @@
         <v>big6.push([561000,560000,'','',' Jeg holder meg oppdatert på bransjetrender og nye teknologier for å identifisere nye vekstmuligheter. ',' Selv om jeg kanskje ikke har all den nødvendige bransjekunnskapen ennå, er jeg ivrig etter å lære og holde meg oppdatert. ',' Jeg er forsiktig med endringer i bransjen og foretrekker å holde meg til kjente metoder og praksis. ',' Jeg har liten interesse for bransjetrender og føler meg komfortabel med min nåværende kunnskap og metoder. ']);</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1">
+    <row r="326" spans="1:10">
       <c r="A326" s="57">
         <v>562000</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>big6.push([562000,560000,'','',' Jeg tror at å forstå bransjetrender er avgjørende for å være konkurransedyktig og relevant i markedet. ',' Selv om jeg kanskje ikke har all den nødvendige bransjekunnskapen, er jeg villig til å lære og tilpasse meg endringer. ',' Jeg anser bransjetrender som mindre viktige, da jeg foretrekker å fokusere på mine nåværende arbeidsoppgaver. ',' Jeg tror at bransjetrender ikke påvirker min nåværende jobb, så jeg har liten interesse for å lære om dem. ']);</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1">
+    <row r="327" spans="1:10">
       <c r="A327" s="57">
         <v>563000</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>big6.push([563000,560000,'','',' Jeg søker aktivt muligheter for å utvide min bransjekunnskap og bruke den til å ta informerte beslutninger. ',' Selv om jeg har begrenset kunnskap om bransjetrender, er jeg åpen for å lære og forbedre min forståelse over tid. ',' Jeg har liten interesse for å lære om bransjetrender, da jeg føler at min nåværende kompetanse er tilstrekkelig. ',' Jeg ser på bransjetrender som irrelevant for min nåværende stilling, så jeg har liten motivasjon for å lære om dem. ']);</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1">
+    <row r="328" spans="1:10">
       <c r="A328" s="57">
         <v>564000</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>big6.push([564000,560000,'','',' Jeg mener at bransjekunnskap er viktig for å ta strategiske beslutninger som vil ha en positiv innvirkning på organisasjonen. ',' Selv om jeg ikke er helt oppdatert på bransjetrender, har jeg tillit til at jeg kan tilegne meg den nødvendige kunnskapen. ',' Jeg anser bransjetrender som mindre relevante, da jeg er mer opptatt av å fokusere på nåværende arbeidsoppgaver. ',' Jeg har liten interesse for bransjekunnskap, og jeg føler ikke at det vil ha en betydelig innvirkning på min karriere. ']);</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1">
+    <row r="329" spans="1:10">
       <c r="A329" s="57">
         <v>565000</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>big6.push([565000,560000,'','',' Jeg tror at kontinuerlig læring om bransjetrender vil gi meg en konkurransefordel og forbedre min karrierevekst. ',' Selv om jeg ikke er ekspert på bransjetrender, tror jeg at jeg kan forstå dem bedre med tiden og innsats. ',' Jeg anser bransjetrender som mindre relevante for min nåværende rolle, så jeg har liten motivasjon for å lære om dem. ',' Jeg føler at min nåværende kunnskap og erfaring er tilstrekkelig, og bransjetrender vil ikke påvirke min nåværende jobb. ']);</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1">
+    <row r="330" spans="1:10">
       <c r="A330" s="66">
         <v>800000</v>
       </c>
@@ -16361,7 +16360,7 @@
         <v>big6.push([800000,0,'Biases','Biases','','','','']);</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1">
+    <row r="331" spans="1:10">
       <c r="A331" s="66">
         <v>810000</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>big6.push([810000,800000,'Cognitive Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1">
+    <row r="332" spans="1:10">
       <c r="A332" s="66">
         <v>811000</v>
       </c>
@@ -16417,7 +16416,7 @@
         <v>big6.push([811000,810000,'Confirmation bias','Tendency to favor information that supports existing beliefs, ignoring contradictory evidence.','Refined decision-making, open-mindedness, and better solutions when challenging assumptions. ',' Reduced stubbornness, greater adaptability, and embracing diverse perspectives. ',' Reinforced misconceptions, hindered innovation, and suboptimal outcomes. ',' Informed decisions, improved creativity, and greater objectivity.']);</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1">
+    <row r="333" spans="1:10">
       <c r="A333" s="66">
         <v>812000</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>big6.push([812000,810000,'Anchoring bias','Reliance on initial information to make decisions, affecting subsequent judgment regardless of accuracy.','Streamlined decision-making, avoiding fixation, and improved adaptability to new information. ',' Less biased decisions, increased openness to alternative possibilities, and enhanced creativity. ',' Limited exploration of alternatives, potential tunnel vision, and reduced adaptability. ',' Diverse ideas, unbiased decisions, and improved problem-solving. ']);</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1">
+    <row r="334" spans="1:10">
       <c r="A334" s="66">
         <v>813000</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>big6.push([813000,810000,'Availability bias','Relying on readily available information, leading to the neglect of less accessible but relevant data.','Efficient decision-making, leveraging accessible insights, and faster problem-solving. ',' Increased attention to overlooked information, reduced oversimplification, and more comprehensive solutions. ',' Neglect of crucial data, limited perspective, and biased conclusions. ',' Improved understanding, unbiased conclusions, and more balanced decisions. ']);</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1">
+    <row r="335" spans="1:10">
       <c r="A335" s="66">
         <v>814000</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>big6.push([814000,810000,'Overconfidence bias','Excessive belief in one\'s own judgments and abilities, often underestimating risks and potential errors.','Confidence in decisions, risk-taking, and self-assuredness in pursuing innovative ideas. ',' Better recognition of limitations, increased humility, and more objective assessment of risks. ',' Overestimated success, ignoring warning signs, and potential project failures. ',' Realistic self-assessment, improved risk management, and increased team collaboration. ']);</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1">
+    <row r="336" spans="1:10">
       <c r="A336" s="66">
         <v>815000</v>
       </c>
@@ -16549,7 +16548,7 @@
         <v>big6.push([815000,810000,'Hindsight bias','Belief that an event was predictable after it occurred, leading to biased evaluations of past decisions.','Improved learning from experiences, building on past successes, and greater self-assurance. ',' Enhanced objectivity in assessing past decisions, avoiding overconfidence, and promoting adaptability. ',' Reinforcement of hindsight judgments, hindering innovation, and overlooking alternative approaches. ',' Better foresight, embracing uncertainties, and promoting open-mindedness. ']);</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1">
+    <row r="337" spans="1:10">
       <c r="A337" s="66">
         <v>820000</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>big6.push([820000,800000,'Social and Cultural Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1">
+    <row r="338" spans="1:10">
       <c r="A338" s="66">
         <v>821000</v>
       </c>
@@ -16605,7 +16604,7 @@
         <v>big6.push([821000,820000,' User bias ',' Assuming users are representative of the entire user base, neglecting diverse user needs and preferences. ','Personalized experiences for targeted users, efficient design solutions, and focused development. ',' Inclusive design, catering to diverse user needs, and avoiding exclusion of specific user groups. ',' Exclusion of important user segments, reduced market reach, and missed business opportunities. ',' Empathy-driven design, broad market reach, and increased customer satisfaction. ']);</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1">
+    <row r="339" spans="1:10">
       <c r="A339" s="66">
         <v>822000</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>big6.push([822000,820000,' Designer bias ',' Allowing personal preferences and assumptions to influence design decisions, potentially limiting creativity.','Unique design styles, showcasing designers\' identities, and distinguishing products from competitors. ',' More diverse design approaches, avoiding design stereotypes, and fostering innovative solutions. ',' Generic and biased designs, limited design diversity, and reduced user appeal. ',' Inclusive design, enhanced creativity, and broader market acceptance. ']);</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1">
+    <row r="340" spans="1:10">
       <c r="A340" s="66">
         <v>823000</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>big6.push([823000,820000,' Cultural bias ',' Designing with a single cultural perspective, disregarding the needs and values of other cultures. ','Targeted design for specific cultures, connecting with cultural norms, and enhancing brand loyalty. ',' Culturally inclusive design, respecting diverse cultural sensitivities, and avoiding cultural misunderstandings. ',' Cultural insensitivity, alienating certain user groups, and potential reputational damage. ',' Increased cultural appreciation, reduced cultural friction, and broader international appeal. ']);</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1">
+    <row r="341" spans="1:10">
       <c r="A341" s="66">
         <v>824000</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>big6.push([824000,820000,' Groupthink ',' Tendency to conform to group consensus, stifling diverse perspectives and critical thinking in decision-making.','Smooth collaboration, quick decision-making, and maintaining group cohesion. ',' More open discussions, encouraging diverse ideas, and improved decision quality. ',' Suppressed dissenting views, limiting creativity, and potential adoption of suboptimal solutions. ',' Fostering constructive dissent, higher-quality decisions, and innovative solutions. ']);</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1">
+    <row r="342" spans="1:10">
       <c r="A342" s="66">
         <v>825000</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>big6.push([825000,820000,' Loss aversion bias ',' Preferring avoiding losses over achieving gains, resulting in conservative design choices and missed opportunities.','Cautionary design, risk mitigation, and safeguarding against potential losses. ',' Embracing strategic risks, pursuing innovative opportunities, and higher potential rewards. ',' Missed chances for growth, stagnant designs, and lost opportunities for advancement. ',' Bold design choices, embracing uncertainty, and seizing potential breakthroughs. ']);</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1">
+    <row r="343" spans="1:10">
       <c r="A343" s="66">
         <v>830000</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>big6.push([830000,800000,'Information and Environmental Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1">
+    <row r="344" spans="1:10">
       <c r="A344" s="66">
         <v>831000</v>
       </c>
@@ -16793,7 +16792,7 @@
         <v>big6.push([831000,830000,' Limited data access ',' Insufficient access to relevant data, hindering comprehensive understanding and informed decision-making. ','Focused decision-making with available data, efficiency in data utilization, and avoiding information overload. ',' In-depth insights from diverse data sources, supporting data-driven decisions, and deeper understanding. ',' Incomplete understanding of the situation, potential data blind spots, and biased conclusions. ',' More informed decisions, comprehensive insights, and higher data accuracy. ']);</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1">
+    <row r="345" spans="1:10">
       <c r="A345" s="66">
         <v>832000</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>big6.push([832000,830000,' Data sampling bias ',' Bias introduced when data is collected in a way that does not accurately represent the entire population. ','Efficient data collection, cost-effective research, and practical implementation. ',' Avoidance of skewed conclusions, comprehensive data representation, and fairer analysis. ',' Misleading results, distorted insights, and biased conclusions drawn from data. ',' Unbiased representation, improved data accuracy, and more reliable analysis. ']);</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1">
+    <row r="346" spans="1:10">
       <c r="A346" s="66">
         <v>833000</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>big6.push([833000,830000,' Media influence ',' The media\'s impact on shaping opinions and perspectives, influencing design decisions and user perceptions. ','Wider audience reach, brand exposure, and effective communication through media channels. ',' Avoidance of media-driven bias, critical analysis of media influence, and independent decision-making. ',' Misleading user perceptions, biased brand portrayal, and potential misinformation spread. ',' Independent user perspectives, authentic brand representation, and reduced media manipulation. ']);</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1">
+    <row r="347" spans="1:10">
       <c r="A347" s="66">
         <v>834000</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>big6.push([834000,830000,' Information overload ',' Overwhelming users with excessive information, leading to reduced comprehension and decision-making abilities. ','Focused and concise information delivery, clarity in messaging, and reduced cognitive load. ',' Prioritization of crucial information, avoiding user confusion, and better decision-making. ',' Overlooked critical information, reduced user engagement, and inaccurate choices. ',' Improved information assimilation, streamlined user experience, and enhanced user satisfaction. ']);</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1">
+    <row r="348" spans="1:10">
       <c r="A348" s="66">
         <v>835000</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>big6.push([835000,830000,' Design constraints and limitations ',' Restrictive factors in the design process that may inhibit exploration of innovative solutions. ','Efficient resource utilization, faster development, and creative problem-solving under constraints. ',' Potential inspiration from constraints, fostering innovative problem-solving, and unique design solutions. ',' Stifled creativity, limited design exploration, and potential missed opportunities. ',' Embracing design challenges, out-of-the-box thinking, and unique problem-solving. ']);</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1">
+    <row r="349" spans="1:10">
       <c r="A349" s="66">
         <v>840000</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>big6.push([840000,800000,'Emotional and Psychological Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1">
+    <row r="350" spans="1:10">
       <c r="A350" s="66">
         <v>841000</v>
       </c>
@@ -16981,7 +16980,7 @@
         <v>big6.push([841000,840000,' Self-serving bias ',' Tendency to attribute successes to internal factors while blaming failures on external factors. ','Enhanced self-motivation, positive mindset, and increased self-confidence in design endeavors. ',' Improved acceptance of personal responsibility, self-awareness, and constructive self-improvement. ',' Avoidance of accountability, hindered learning from failures, and potential stagnation. ',' Greater accountability, objective self-evaluation, and continuous growth. ']);</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1">
+    <row r="351" spans="1:10">
       <c r="A351" s="66">
         <v>842000</v>
       </c>
@@ -17014,7 +17013,7 @@
         <v>big6.push([842000,840000,' Negativity bias ',' Giving more weight to negative information and experiences, impacting user satisfaction and perception. ','Focused improvements based on negative feedback, increased empathy, and addressing user pain points. ',' Balanced consideration of positive and negative feedback, improved emotional appeal, and enhanced UX. ',' Negative impact on user satisfaction, diminished brand loyalty, and decreased user engagement. ',' More positive user experiences, higher brand loyalty, and improved customer retention. ']);</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1">
+    <row r="352" spans="1:10">
       <c r="A352" s="66">
         <v>843000</v>
       </c>
@@ -17047,7 +17046,7 @@
         <v>big6.push([843000,840000,' Empathy gap ',' Difficulty understanding and considering the emotions of others, affecting user-centered design approaches. ','Enhanced user empathy, better user-centric design, and products that cater to real user needs. ',' Avoidance of design blind spots, inclusive and user-focused solutions, and increased user satisfaction. ',' Detached design decisions, overlooking user emotions, and potential alienation of users. ',' Empathetic design, stronger emotional connections, and increased user loyalty. ']);</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1">
+    <row r="353" spans="1:10">
       <c r="A353" s="66">
         <v>844000</v>
       </c>
@@ -17080,7 +17079,7 @@
         <v>big6.push([844000,840000,' Sunk cost fallacy ',' Continuing an endeavor based on prior investments, even if it is no longer beneficial or relevant. ','Leveraging past investments efficiently, committing to projects with potential for turnaround. ',' More rational decision-making, avoiding futile efforts, and pursuing better opportunities. ',' Persistence in failing projects, wasted resources, and potential negative impacts on the organization. ',' Resource optimization, agile project management, and improved ROI. ']);</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1">
+    <row r="354" spans="1:10">
       <c r="A354" s="66">
         <v>845000</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>big6.push([845000,840000,' Halo effect ',' Allowing one positive trait to influence overall judgment positively, potentially overlooking flaws. ','Positive brand perception, increased customer loyalty, and potential premium pricing. ',' Balanced assessment of strengths and weaknesses, better-informed judgments, and unbiased user opinions. ',' Overvalued products, potential brand arrogance, and unaddressed product shortcomings. ',' Objective user evaluation, product improvement, and potential competitive advantage. ']);</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1">
+    <row r="355" spans="1:10">
       <c r="A355" s="66">
         <v>850000</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>big6.push([850000,800000,'Decision-making Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1">
+    <row r="356" spans="1:10">
       <c r="A356" s="66">
         <v>851000</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>big6.push([851000,850000,' Status quo bias ',' Preferring to maintain the current state, avoiding change even if better alternatives are available. ','Stability in design choices, consistent user experience, and minimizing user disruption. ',' Embracing change, pursuing innovation, and staying competitive with evolving trends. ',' Stagnation in design, missed innovation opportunities, and potential loss of market relevance. ',' Adaptive design, embracing new trends, and enhancing market competitiveness. ']);</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1">
+    <row r="357" spans="1:10">
       <c r="A357" s="66">
         <v>852000</v>
       </c>
@@ -17202,7 +17201,7 @@
         <v>big6.push([852000,850000,' Framing effect ',' Different decisions resulting from how information is presented, emphasizing gains or losses. ','Leveraging framing to influence user decisions positively, enhancing marketing effectiveness. ',' Neutral framing to promote unbiased decisions, improved transparency, and equitable user choices. ',' Manipulative framing, biased information presentation, and potential user confusion. ',' Transparent messaging, unbiased information, and more informed user decisions. ']);</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1">
+    <row r="358" spans="1:10">
       <c r="A358" s="66">
         <v>853000</v>
       </c>
@@ -17235,7 +17234,7 @@
         <v>big6.push([853000,850000,' Choice-supportive bias ',' Post-decision belief that the chosen option is better than rejected alternatives, reinforcing satisfaction. ','Strengthened satisfaction with chosen options, reaffirming trust in design decisions. ',' Avoidance of irrational attachment to chosen options, embracing potential improvements, and openness to change. ',' Overconfidence in design decisions, limiting willingness to iterate, and overlooking potential enhancements. ',' Continuous improvement, open-mindedness, and user-centric design iterations. ']);</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1">
+    <row r="359" spans="1:10">
       <c r="A359" s="66">
         <v>854000</v>
       </c>
@@ -17268,7 +17267,7 @@
         <v>big6.push([854000,850000,' Decision fatigue ',' Reduced ability to make quality decisions after a series of choices, leading to suboptimal outcomes. ','Efficiently simplifying decision-making, optimizing user interfaces, and reducing cognitive load. ',' Avoidance of overwhelming users, encouraging breaks in decision-making, and maintaining user engagement. ',' Increased potential for user errors, decreased satisfaction, and potential abandonment of the process. ',' Streamlined decision-making, improved accuracy, and better user satisfaction. ']);</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1">
+    <row r="360" spans="1:10">
       <c r="A360" s="66">
         <v>855000</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>big6.push([855000,850000,' Ambiguity aversion ',' Preferring clear, certain options over ambiguous ones, potentially limiting exploration of new possibilities.','Simplified decision-making, avoiding complex choices, and reduced uncertainty. ',' Embracing experimentation and innovation, exploring new solutions, and fostering creativity. ',' Missed opportunities for innovation, limited creativity, and potential resistance to change. ',' Enhanced creativity, exploration of possibilities, and openness to uncertainty. ']);</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1">
+    <row r="361" spans="1:10">
       <c r="A361" s="66">
         <v>860000</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>big6.push([860000,800000,'Technology and Interface Biases:','','','','','']);</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1">
+    <row r="362" spans="1:10">
       <c r="A362" s="66">
         <v>861000</v>
       </c>
@@ -17357,7 +17356,7 @@
         <v>big6.push([861000,860000,' Automation bias ',' Blindly trusting automated systems without verifying results, leading to potentially serious errors. ','Efficient reliance on reliable automation, increased productivity, and time savings. ',' Avoidance of blind trust, vigilant monitoring of automated processes, and human intervention when needed. ',' Overreliance on automation, potential complacency, and errors due to lack of human oversight. ',' Balanced automation usage, human oversight, and error prevention. ']);</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1">
+    <row r="363" spans="1:10">
       <c r="A363" s="66">
         <v>862000</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>big6.push([862000,860000,' Interface bias ',' The impact of interface design on user behavior and decision-making, influencing perceptions and choices. ','Positive user engagement, improved user interactions, and seamless navigation. ',' Avoidance of biased interface designs, prioritizing usability, and catering to diverse user needs. ',' Confusing interfaces, reduced user satisfaction, and potential abandonment of the platform. ',' User-centric design, intuitive interfaces, and better user experiences. ']);</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1">
+    <row r="364" spans="1:10">
       <c r="A364" s="66">
         <v>863000</v>
       </c>
@@ -17423,7 +17422,7 @@
         <v>big6.push([863000,860000,' Algorithmic bias ',' Prejudice resulting from biased algorithms, affecting recommendations and content served to users. ','Fair and inclusive algorithms, personalized content, and improved user experiences. ',' Bias-free algorithms, avoiding discriminatory outputs, and providing equitable experiences for all users. ',' Biased recommendations, discriminatory content, and potential harm to marginalized users. ',' Unbiased algorithms, equitable user experiences, and reducing algorithmic discrimination. ']);</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1">
+    <row r="365" spans="1:10">
       <c r="A365" s="66">
         <v>864000</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>big6.push([864000,860000,' Technology overdependence ',' Excessive reliance on technology, reducing critical thinking and user independence in decision-making. ','Excessive reliance on technology, reducing critical thinking and user independence in decision-making. ',' Streamlined processes, increased efficiency, and leveraging technology\'s capabilities. ',' Balanced use of technology, maintaining user autonomy, and considering human judgment in decisions. ',' Limited critical thinking, reduced user autonomy, and potential technology failures. ']);</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1">
+    <row r="366" spans="1:10">
       <c r="A366" s="68">
         <v>865000</v>
       </c>
@@ -17491,12 +17490,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H366" xr:uid="{00000000-0009-0000-0000-00000E000000}">
-    <filterColumn colId="0">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="100000"/>
-        <customFilter operator="lessThanOrEqual" val="199999"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H366">
       <sortCondition ref="A1:A366"/>
     </sortState>
@@ -17514,7 +17507,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -17531,12 +17524,12 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="72" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>1468</v>
       </c>
       <c r="C9" t="s">
@@ -17544,7 +17537,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>1469</v>
       </c>
       <c r="C10" t="s">
@@ -17552,7 +17545,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>1467</v>
       </c>
       <c r="C11" t="s">
@@ -17560,7 +17553,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>1466</v>
       </c>
       <c r="C12" t="s">
@@ -17601,7 +17594,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="30.5546875" customWidth="1"/>
     <col min="8" max="8" width="33.109375" customWidth="1"/>
@@ -17732,7 +17725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30.6">
+    <row r="7" spans="1:9" ht="31.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -17784,7 +17777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30.6">
+    <row r="11" spans="1:9" ht="31.2">
       <c r="H11" s="6" t="s">
         <v>45</v>
       </c>
@@ -17792,7 +17785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30.6">
+    <row r="12" spans="1:9" ht="31.2">
       <c r="H12" s="6" t="s">
         <v>47</v>
       </c>
@@ -17808,7 +17801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.6">
+    <row r="14" spans="1:9" ht="31.2">
       <c r="I14" s="6" t="s">
         <v>51</v>
       </c>
@@ -17820,7 +17813,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="30.6">
+    <row r="16" spans="1:9" ht="31.2">
       <c r="H16" s="6" t="s">
         <v>53</v>
       </c>
@@ -17828,7 +17821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="7:9" ht="30.6">
+    <row r="17" spans="7:9" ht="31.2">
       <c r="H17" s="6" t="s">
         <v>55</v>
       </c>
@@ -17836,7 +17829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="7:9" ht="30.6">
+    <row r="18" spans="7:9" ht="15.6">
       <c r="H18" s="6" t="s">
         <v>57</v>
       </c>
@@ -17844,7 +17837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="7:9" ht="30.6">
+    <row r="19" spans="7:9" ht="31.2">
       <c r="H19" s="6" t="s">
         <v>59</v>
       </c>
@@ -17871,7 +17864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="7:9" ht="30.6">
+    <row r="22" spans="7:9" ht="31.2">
       <c r="H22" s="6" t="s">
         <v>64</v>
       </c>
@@ -17879,7 +17872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="7:9" ht="30.6">
+    <row r="23" spans="7:9" ht="31.2">
       <c r="H23" s="6" t="s">
         <v>66</v>
       </c>
@@ -17887,7 +17880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="7:9" ht="30.6">
+    <row r="24" spans="7:9" ht="31.2">
       <c r="H24" s="9" t="s">
         <v>68</v>
       </c>
@@ -17895,7 +17888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="7:9" ht="30.6">
+    <row r="25" spans="7:9" ht="31.2">
       <c r="H25" s="6" t="s">
         <v>70</v>
       </c>
@@ -17903,7 +17896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="7:9" ht="30.6">
+    <row r="26" spans="7:9" ht="31.2">
       <c r="H26" s="6" t="s">
         <v>72</v>
       </c>
@@ -17926,7 +17919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="7:9" ht="30.6">
+    <row r="29" spans="7:9" ht="31.2">
       <c r="H29" s="6" t="s">
         <v>77</v>
       </c>
@@ -17942,7 +17935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="7:9" ht="30.6">
+    <row r="31" spans="7:9" ht="31.2">
       <c r="H31" s="6" t="s">
         <v>81</v>
       </c>
@@ -17958,7 +17951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="8:8" ht="30.6">
+    <row r="33" spans="8:8" ht="31.2">
       <c r="H33" s="6" t="s">
         <v>85</v>
       </c>
@@ -17979,11 +17972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
@@ -20332,7 +20325,7 @@
       <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="15" customWidth="1"/>
@@ -25878,7 +25871,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
@@ -28810,7 +28803,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="88.5546875" customWidth="1"/>
@@ -28899,7 +28892,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
@@ -28962,14 +28955,14 @@
       <c r="A5" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="74" t="s">
         <v>723</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="D5" s="74"/>
+      <c r="F5" s="74" t="s">
         <v>728</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="74"/>
       <c r="I5" s="44" t="s">
         <v>727</v>
       </c>
@@ -28978,10 +28971,10 @@
       <c r="A6" s="45" t="s">
         <v>729</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="I6" s="45" t="s">
         <v>730</v>
       </c>
@@ -28994,14 +28987,14 @@
       <c r="A8" s="44" t="s">
         <v>731</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>732</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="F8" s="72" t="s">
+      <c r="D8" s="74"/>
+      <c r="F8" s="74" t="s">
         <v>733</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="74"/>
       <c r="I8" s="44" t="s">
         <v>731</v>
       </c>
@@ -29010,10 +29003,10 @@
       <c r="A9" s="45" t="s">
         <v>734</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
       <c r="I9" s="45" t="s">
         <v>735</v>
       </c>
@@ -29028,11 +29021,11 @@
       <c r="C11" s="44" t="s">
         <v>736</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="75" t="s">
         <v>737</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="44" t="s">
         <v>738</v>
       </c>
@@ -29068,7 +29061,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="2.88671875" customWidth="1"/>
@@ -29317,7 +29310,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
